--- a/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/R_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/R_resmat.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,5619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.19756356940617786</v>
+      </c>
+      <c r="B1">
+        <v>0.82844484353388903</v>
+      </c>
+      <c r="C1">
+        <v>0.2711452607950432</v>
+      </c>
+      <c r="D1">
+        <v>0.90400740883784059</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.05804762323170197</v>
+      </c>
+      <c r="B2">
+        <v>0.90119553626673488</v>
+      </c>
+      <c r="C2">
+        <v>0.57826335492368286</v>
+      </c>
+      <c r="D2">
+        <v>0.97099493307559381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.11148922720328715</v>
+      </c>
+      <c r="B3">
+        <v>0.85013793411403304</v>
+      </c>
+      <c r="C3">
+        <v>0.51960932556324069</v>
+      </c>
+      <c r="D3">
+        <v>0.94564347047358166</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.11899871148529466</v>
+      </c>
+      <c r="B4">
+        <v>0.82552570435436579</v>
+      </c>
+      <c r="C4">
+        <v>0.53685105795348786</v>
+      </c>
+      <c r="D4">
+        <v>0.94297988832872548</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.11381568910885642</v>
+      </c>
+      <c r="B5">
+        <v>0.88147200113092672</v>
+      </c>
+      <c r="C5">
+        <v>0.46331277546393829</v>
+      </c>
+      <c r="D5">
+        <v>0.94412398265713326</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.15029798546050888</v>
+      </c>
+      <c r="B6">
+        <v>0.83123524507498348</v>
+      </c>
+      <c r="C6">
+        <v>0.47948017593910403</v>
+      </c>
+      <c r="D6">
+        <v>0.92989791438067715</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.089978079586179704</v>
+      </c>
+      <c r="B7">
+        <v>0.89620777024943821</v>
+      </c>
+      <c r="C7">
+        <v>0.48050724269825756</v>
+      </c>
+      <c r="D7">
+        <v>0.95527385053138636</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.070846173687568736</v>
+      </c>
+      <c r="B8">
+        <v>0.89869583949459653</v>
+      </c>
+      <c r="C8">
+        <v>0.56789827443892493</v>
+      </c>
+      <c r="D8">
+        <v>0.96480136481086776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.18779528759106284</v>
+      </c>
+      <c r="B9">
+        <v>0.78922230225853063</v>
+      </c>
+      <c r="C9">
+        <v>0.47235150456571501</v>
+      </c>
+      <c r="D9">
+        <v>0.91763292386787365</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.15470342701098053</v>
+      </c>
+      <c r="B10">
+        <v>0.85216379152625066</v>
+      </c>
+      <c r="C10">
+        <v>0.42669862708990663</v>
+      </c>
+      <c r="D10">
+        <v>0.92679389368621223</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.1254983070879491</v>
+      </c>
+      <c r="B11">
+        <v>0.81858694507581053</v>
+      </c>
+      <c r="C11">
+        <v>0.54591878117015491</v>
+      </c>
+      <c r="D11">
+        <v>0.94116868249947117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.14125923887512959</v>
+      </c>
+      <c r="B12">
+        <v>0.8337621496381814</v>
+      </c>
+      <c r="C12">
+        <v>0.4813312678510277</v>
+      </c>
+      <c r="D12">
+        <v>0.93277406693962883</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.065982873087655144</v>
+      </c>
+      <c r="B13">
+        <v>0.88665850826280057</v>
+      </c>
+      <c r="C13">
+        <v>0.59995189538392224</v>
+      </c>
+      <c r="D13">
+        <v>0.96717790820744742</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.095316689489228057</v>
+      </c>
+      <c r="B14">
+        <v>0.8595047402399113</v>
+      </c>
+      <c r="C14">
+        <v>0.55342332130025218</v>
+      </c>
+      <c r="D14">
+        <v>0.95346640952239869</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.11004882841495245</v>
+      </c>
+      <c r="B15">
+        <v>0.82783253617511166</v>
+      </c>
+      <c r="C15">
+        <v>0.55575126169280797</v>
+      </c>
+      <c r="D15">
+        <v>0.94694532243218965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.071157116761500827</v>
+      </c>
+      <c r="B16">
+        <v>0.89448918588902993</v>
+      </c>
+      <c r="C16">
+        <v>0.54312354431802545</v>
+      </c>
+      <c r="D16">
+        <v>0.96442944028347277</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.064511473517102028</v>
+      </c>
+      <c r="B17">
+        <v>0.87148595133853823</v>
+      </c>
+      <c r="C17">
+        <v>0.62908634595421808</v>
+      </c>
+      <c r="D17">
+        <v>0.96800511003137646</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.081305924567723856</v>
+      </c>
+      <c r="B18">
+        <v>0.85314173571713714</v>
+      </c>
+      <c r="C18">
+        <v>0.61706539827976403</v>
+      </c>
+      <c r="D18">
+        <v>0.96016461515291318</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.10696323620497435</v>
+      </c>
+      <c r="B19">
+        <v>0.82638488198936277</v>
+      </c>
+      <c r="C19">
+        <v>0.55924259011055522</v>
+      </c>
+      <c r="D19">
+        <v>0.94813451153657335</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.068617168276546361</v>
+      </c>
+      <c r="B20">
+        <v>0.90066872513848661</v>
+      </c>
+      <c r="C20">
+        <v>0.53337761247020432</v>
+      </c>
+      <c r="D20">
+        <v>0.96571805296121305</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.1489841986455982</v>
+      </c>
+      <c r="B21">
+        <v>0.78430663697940739</v>
+      </c>
+      <c r="C21">
+        <v>0.53145928253287844</v>
+      </c>
+      <c r="D21">
+        <v>0.92993188483095124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.25880268400916917</v>
+      </c>
+      <c r="B22">
+        <v>0.71834293573736108</v>
+      </c>
+      <c r="C22">
+        <v>0.36911558614611911</v>
+      </c>
+      <c r="D22">
+        <v>0.88643051146874952</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.11743135733929957</v>
+      </c>
+      <c r="B23">
+        <v>0.82157586565744523</v>
+      </c>
+      <c r="C23">
+        <v>0.54278455160684502</v>
+      </c>
+      <c r="D23">
+        <v>0.94270322480003943</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.17751584424649602</v>
+      </c>
+      <c r="B24">
+        <v>0.82835388311978397</v>
+      </c>
+      <c r="C24">
+        <v>0.28871950103882643</v>
+      </c>
+      <c r="D24">
+        <v>0.91296478439397899</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.044488605132975353</v>
+      </c>
+      <c r="B25">
+        <v>0.83556893786728093</v>
+      </c>
+      <c r="C25">
+        <v>0.74858199854804086</v>
+      </c>
+      <c r="D25">
+        <v>0.97775569743351232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.13231113737442851</v>
+      </c>
+      <c r="B26">
+        <v>0.75984537590188117</v>
+      </c>
+      <c r="C26">
+        <v>0.5973834842308875</v>
+      </c>
+      <c r="D26">
+        <v>0.93882478566022876</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.13355084424634397</v>
+      </c>
+      <c r="B27">
+        <v>0.81343163015960451</v>
+      </c>
+      <c r="C27">
+        <v>0.4946374158105904</v>
+      </c>
+      <c r="D27">
+        <v>0.93550780020680668</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.087888877774125782</v>
+      </c>
+      <c r="B28">
+        <v>0.87137583545894304</v>
+      </c>
+      <c r="C28">
+        <v>0.42854364227521219</v>
+      </c>
+      <c r="D28">
+        <v>0.9560555611129371</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.16638639367183161</v>
+      </c>
+      <c r="B29">
+        <v>0.81507187249161051</v>
+      </c>
+      <c r="C29">
+        <v>0.39369334170428083</v>
+      </c>
+      <c r="D29">
+        <v>0.91933724055594923</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.19864480622509409</v>
+      </c>
+      <c r="B30">
+        <v>0.77613958554381923</v>
+      </c>
+      <c r="C30">
+        <v>0.45406826114933613</v>
+      </c>
+      <c r="D30">
+        <v>0.91117799223957818</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.11689279596933416</v>
+      </c>
+      <c r="B31">
+        <v>0.83845744788553478</v>
+      </c>
+      <c r="C31">
+        <v>0.52472082029193245</v>
+      </c>
+      <c r="D31">
+        <v>0.94329587998657616</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.25280532620453294</v>
+      </c>
+      <c r="B32">
+        <v>0.74403210319697388</v>
+      </c>
+      <c r="C32">
+        <v>0.35738323717696435</v>
+      </c>
+      <c r="D32">
+        <v>0.88886592343580983</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.14156983848392615</v>
+      </c>
+      <c r="B33">
+        <v>0.77947116915290204</v>
+      </c>
+      <c r="C33">
+        <v>0.51024612140248427</v>
+      </c>
+      <c r="D33">
+        <v>0.93242170432412819</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.030776461933031563</v>
+      </c>
+      <c r="B34">
+        <v>0.87219803585422317</v>
+      </c>
+      <c r="C34">
+        <v>0.78034754176917664</v>
+      </c>
+      <c r="D34">
+        <v>0.98461176903348424</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.092734152708926126</v>
+      </c>
+      <c r="B35">
+        <v>0.80367069911220324</v>
+      </c>
+      <c r="C35">
+        <v>0.63539799122795515</v>
+      </c>
+      <c r="D35">
+        <v>0.95473585403772254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.098673356622480141</v>
+      </c>
+      <c r="B36">
+        <v>0.81813713729020965</v>
+      </c>
+      <c r="C36">
+        <v>0.57939656373841586</v>
+      </c>
+      <c r="D36">
+        <v>0.95160606076477094</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.10153846153846155</v>
+      </c>
+      <c r="B37">
+        <v>0.84382508093868169</v>
+      </c>
+      <c r="C37">
+        <v>0.52023414073391872</v>
+      </c>
+      <c r="D37">
+        <v>0.94964767191571342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.16051166223136615</v>
+      </c>
+      <c r="B38">
+        <v>0.78912885258618581</v>
+      </c>
+      <c r="C38">
+        <v>0.4896882334744011</v>
+      </c>
+      <c r="D38">
+        <v>0.92469530603573569</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.14402323104705084</v>
+      </c>
+      <c r="B39">
+        <v>0.77850452219108568</v>
+      </c>
+      <c r="C39">
+        <v>0.55065450251163683</v>
+      </c>
+      <c r="D39">
+        <v>0.93267604640035628</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.22145225172363203</v>
+      </c>
+      <c r="B40">
+        <v>0.73150906182872866</v>
+      </c>
+      <c r="C40">
+        <v>0.48144445558006543</v>
+      </c>
+      <c r="D40">
+        <v>0.90502273727446081</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.35988332773206866</v>
+      </c>
+      <c r="B41">
+        <v>0.71915206363452222</v>
+      </c>
+      <c r="C41">
+        <v>0.23803206658726803</v>
+      </c>
+      <c r="D41">
+        <v>0.83808002478386723</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.33150833256927797</v>
+      </c>
+      <c r="B42">
+        <v>0.7196757220173694</v>
+      </c>
+      <c r="C42">
+        <v>0.37807501517554837</v>
+      </c>
+      <c r="D42">
+        <v>0.8631189030202745</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.3089845826687932</v>
+      </c>
+      <c r="B43">
+        <v>0.77161053632051146</v>
+      </c>
+      <c r="C43">
+        <v>0.25195992106407822</v>
+      </c>
+      <c r="D43">
+        <v>0.85552011341485024</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.17910768878416783</v>
+      </c>
+      <c r="B44">
+        <v>0.84142433301746256</v>
+      </c>
+      <c r="C44">
+        <v>0.42838865296182577</v>
+      </c>
+      <c r="D44">
+        <v>0.91531418048649016</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.19689396577222168</v>
+      </c>
+      <c r="B45">
+        <v>0.83886748707654568</v>
+      </c>
+      <c r="C45">
+        <v>0.39141492998077637</v>
+      </c>
+      <c r="D45">
+        <v>0.90662990044666081</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.17093400050618837</v>
+      </c>
+      <c r="B46">
+        <v>0.83429079361054537</v>
+      </c>
+      <c r="C46">
+        <v>0.44787424596671699</v>
+      </c>
+      <c r="D46">
+        <v>0.91733259479621776</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.19624289079106108</v>
+      </c>
+      <c r="B47">
+        <v>0.82335810385698738</v>
+      </c>
+      <c r="C47">
+        <v>0.43026084743803061</v>
+      </c>
+      <c r="D47">
+        <v>0.90753145286379044</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.19454197809838344</v>
+      </c>
+      <c r="B48">
+        <v>0.83564662822475522</v>
+      </c>
+      <c r="C48">
+        <v>0.39124649976529957</v>
+      </c>
+      <c r="D48">
+        <v>0.90776129684351481</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.20402564434983714</v>
+      </c>
+      <c r="B49">
+        <v>0.8348103532361334</v>
+      </c>
+      <c r="C49">
+        <v>0.37925873750762923</v>
+      </c>
+      <c r="D49">
+        <v>0.90209709054563247</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.16613776367369798</v>
+      </c>
+      <c r="B50">
+        <v>0.84301932181391126</v>
+      </c>
+      <c r="C50">
+        <v>0.42481173567438124</v>
+      </c>
+      <c r="D50">
+        <v>0.9187264041326817</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.16063156672665002</v>
+      </c>
+      <c r="B51">
+        <v>0.83891901482890707</v>
+      </c>
+      <c r="C51">
+        <v>0.441800598155974</v>
+      </c>
+      <c r="D51">
+        <v>0.9217226833846095</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.18730878527266517</v>
+      </c>
+      <c r="B52">
+        <v>0.81767162106604918</v>
+      </c>
+      <c r="C52">
+        <v>0.43011267308004447</v>
+      </c>
+      <c r="D52">
+        <v>0.91065290483716166</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.1624605979558697</v>
+      </c>
+      <c r="B53">
+        <v>0.82931211417330752</v>
+      </c>
+      <c r="C53">
+        <v>0.45974206001770385</v>
+      </c>
+      <c r="D53">
+        <v>0.9207055751902441</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.23883332262732906</v>
+      </c>
+      <c r="B54">
+        <v>0.8108025647266488</v>
+      </c>
+      <c r="C54">
+        <v>0.2662694818946304</v>
+      </c>
+      <c r="D54">
+        <v>0.883940300800935</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.19504857338666273</v>
+      </c>
+      <c r="B55">
+        <v>0.82521894101606608</v>
+      </c>
+      <c r="C55">
+        <v>0.29978330863542113</v>
+      </c>
+      <c r="D55">
+        <v>0.90338432667748225</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.25103371589105761</v>
+      </c>
+      <c r="B56">
+        <v>0.79568462985629718</v>
+      </c>
+      <c r="C56">
+        <v>0.27707283052312887</v>
+      </c>
+      <c r="D56">
+        <v>0.87944062132185541</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.16035648532838034</v>
+      </c>
+      <c r="B57">
+        <v>0.8307994338263045</v>
+      </c>
+      <c r="C57">
+        <v>0.45958521052425705</v>
+      </c>
+      <c r="D57">
+        <v>0.92227625983674666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.16650509053590007</v>
+      </c>
+      <c r="B58">
+        <v>0.81922091918358553</v>
+      </c>
+      <c r="C58">
+        <v>0.4673792420763187</v>
+      </c>
+      <c r="D58">
+        <v>0.9197271434878902</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.14950824526162426</v>
+      </c>
+      <c r="B59">
+        <v>0.83432817269992343</v>
+      </c>
+      <c r="C59">
+        <v>0.47448591456666322</v>
+      </c>
+      <c r="D59">
+        <v>0.92695347593043087</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.17123214940209702</v>
+      </c>
+      <c r="B60">
+        <v>0.82644100646066487</v>
+      </c>
+      <c r="C60">
+        <v>0.45439087068911882</v>
+      </c>
+      <c r="D60">
+        <v>0.91811047132315082</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.11833307519681538</v>
+      </c>
+      <c r="B61">
+        <v>0.84452926116448668</v>
+      </c>
+      <c r="C61">
+        <v>0.35020479146621003</v>
+      </c>
+      <c r="D61">
+        <v>0.9408378562146642</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.10468208239492938</v>
+      </c>
+      <c r="B62">
+        <v>0.84484256082202625</v>
+      </c>
+      <c r="C62">
+        <v>0.37760010653053322</v>
+      </c>
+      <c r="D62">
+        <v>0.94766272654743644</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.16685269907115671</v>
+      </c>
+      <c r="B63">
+        <v>0.77514391154081241</v>
+      </c>
+      <c r="C63">
+        <v>0.32785464785056206</v>
+      </c>
+      <c r="D63">
+        <v>0.91691274750551732</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.20847352060361818</v>
+      </c>
+      <c r="B64">
+        <v>0.77188792664286943</v>
+      </c>
+      <c r="C64">
+        <v>0.27215879909077589</v>
+      </c>
+      <c r="D64">
+        <v>0.89674846113956719</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.14086798710848275</v>
+      </c>
+      <c r="B65">
+        <v>0.82111102493729327</v>
+      </c>
+      <c r="C65">
+        <v>0.33333948006274422</v>
+      </c>
+      <c r="D65">
+        <v>0.92958497013692731</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.11949812699288775</v>
+      </c>
+      <c r="B66">
+        <v>0.84434235065761887</v>
+      </c>
+      <c r="C66">
+        <v>0.3541230911290339</v>
+      </c>
+      <c r="D66">
+        <v>0.94026186579378068</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.16072783814301317</v>
+      </c>
+      <c r="B67">
+        <v>0.81094866557049272</v>
+      </c>
+      <c r="C67">
+        <v>0.30999346046880749</v>
+      </c>
+      <c r="D67">
+        <v>0.91987583771638715</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.10246679835309996</v>
+      </c>
+      <c r="B68">
+        <v>0.85928773841645589</v>
+      </c>
+      <c r="C68">
+        <v>0.37952845628563059</v>
+      </c>
+      <c r="D68">
+        <v>0.9487666008234501</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.11190830180488226</v>
+      </c>
+      <c r="B69">
+        <v>0.85080017750125103</v>
+      </c>
+      <c r="C69">
+        <v>0.37267135562372367</v>
+      </c>
+      <c r="D69">
+        <v>0.94408941709904015</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.089305698862709337</v>
+      </c>
+      <c r="B70">
+        <v>0.87016016873952085</v>
+      </c>
+      <c r="C70">
+        <v>0.40808845136982519</v>
+      </c>
+      <c r="D70">
+        <v>0.95534715056864528</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.1566803720410363</v>
+      </c>
+      <c r="B71">
+        <v>0.82137027712257582</v>
+      </c>
+      <c r="C71">
+        <v>0.310451353394465</v>
+      </c>
+      <c r="D71">
+        <v>0.92193658270461587</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.19114671775445929</v>
+      </c>
+      <c r="B72">
+        <v>0.76860789192236334</v>
+      </c>
+      <c r="C72">
+        <v>0.30086070228499784</v>
+      </c>
+      <c r="D72">
+        <v>0.90517288089674552</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.17926235420675746</v>
+      </c>
+      <c r="B73">
+        <v>0.79945210548175183</v>
+      </c>
+      <c r="C73">
+        <v>0.29064818990991903</v>
+      </c>
+      <c r="D73">
+        <v>0.91083472897162032</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.12019025847755047</v>
+      </c>
+      <c r="B74">
+        <v>0.84609173030014728</v>
+      </c>
+      <c r="C74">
+        <v>0.34906604734823987</v>
+      </c>
+      <c r="D74">
+        <v>0.93991335308300583</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.14136756071709539</v>
+      </c>
+      <c r="B75">
+        <v>0.82190543035707431</v>
+      </c>
+      <c r="C75">
+        <v>0.32812550607600965</v>
+      </c>
+      <c r="D75">
+        <v>0.9293735575921771</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.17883550366711573</v>
+      </c>
+      <c r="B76">
+        <v>0.79700441766841335</v>
+      </c>
+      <c r="C76">
+        <v>0.2960762499948052</v>
+      </c>
+      <c r="D76">
+        <v>0.91121473447472534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.1578139622787583</v>
+      </c>
+      <c r="B77">
+        <v>0.81561213407762012</v>
+      </c>
+      <c r="C77">
+        <v>0.31064140899653381</v>
+      </c>
+      <c r="D77">
+        <v>0.92122299919469119</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.10163136087042121</v>
+      </c>
+      <c r="B78">
+        <v>0.8560136004015696</v>
+      </c>
+      <c r="C78">
+        <v>0.37970760632645217</v>
+      </c>
+      <c r="D78">
+        <v>0.94918431956478932</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.13596043223482607</v>
+      </c>
+      <c r="B79">
+        <v>0.81662014146781503</v>
+      </c>
+      <c r="C79">
+        <v>0.34404655461157058</v>
+      </c>
+      <c r="D79">
+        <v>0.93208463788002516</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.080260322293580932</v>
+      </c>
+      <c r="B80">
+        <v>0.87916693471177099</v>
+      </c>
+      <c r="C80">
+        <v>0.40841652890327268</v>
+      </c>
+      <c r="D80">
+        <v>0.95986983885320942</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.11833307519681538</v>
+      </c>
+      <c r="B81">
+        <v>0.84452926116448668</v>
+      </c>
+      <c r="C81">
+        <v>0.35020479146621003</v>
+      </c>
+      <c r="D81">
+        <v>0.9408378562146642</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.10468208239492938</v>
+      </c>
+      <c r="B82">
+        <v>0.84484256082202625</v>
+      </c>
+      <c r="C82">
+        <v>0.37760010653053322</v>
+      </c>
+      <c r="D82">
+        <v>0.94766272654743644</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.16685269907115671</v>
+      </c>
+      <c r="B83">
+        <v>0.77514391154081241</v>
+      </c>
+      <c r="C83">
+        <v>0.32785464785056206</v>
+      </c>
+      <c r="D83">
+        <v>0.91691274750551732</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.20847352060361818</v>
+      </c>
+      <c r="B84">
+        <v>0.77188792664286943</v>
+      </c>
+      <c r="C84">
+        <v>0.27215879909077589</v>
+      </c>
+      <c r="D84">
+        <v>0.89674846113956719</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.14086798710848275</v>
+      </c>
+      <c r="B85">
+        <v>0.82111102493729327</v>
+      </c>
+      <c r="C85">
+        <v>0.33333948006274422</v>
+      </c>
+      <c r="D85">
+        <v>0.92958497013692731</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.11949812699288775</v>
+      </c>
+      <c r="B86">
+        <v>0.84434235065761887</v>
+      </c>
+      <c r="C86">
+        <v>0.3541230911290339</v>
+      </c>
+      <c r="D86">
+        <v>0.94026186579378068</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.16072783814301317</v>
+      </c>
+      <c r="B87">
+        <v>0.81094866557049272</v>
+      </c>
+      <c r="C87">
+        <v>0.30999346046880749</v>
+      </c>
+      <c r="D87">
+        <v>0.91987583771638715</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.10246679835309996</v>
+      </c>
+      <c r="B88">
+        <v>0.85928773841645589</v>
+      </c>
+      <c r="C88">
+        <v>0.37952845628563059</v>
+      </c>
+      <c r="D88">
+        <v>0.9487666008234501</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.11190830180488226</v>
+      </c>
+      <c r="B89">
+        <v>0.85080017750125103</v>
+      </c>
+      <c r="C89">
+        <v>0.37267135562372367</v>
+      </c>
+      <c r="D89">
+        <v>0.94408941709904015</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.089305698862709337</v>
+      </c>
+      <c r="B90">
+        <v>0.87016016873952085</v>
+      </c>
+      <c r="C90">
+        <v>0.40808845136982519</v>
+      </c>
+      <c r="D90">
+        <v>0.95534715056864528</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.1566803720410363</v>
+      </c>
+      <c r="B91">
+        <v>0.82137027712257582</v>
+      </c>
+      <c r="C91">
+        <v>0.310451353394465</v>
+      </c>
+      <c r="D91">
+        <v>0.92193658270461587</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.19114671775445929</v>
+      </c>
+      <c r="B92">
+        <v>0.76860789192236334</v>
+      </c>
+      <c r="C92">
+        <v>0.30086070228499784</v>
+      </c>
+      <c r="D92">
+        <v>0.90517288089674552</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.17926235420675746</v>
+      </c>
+      <c r="B93">
+        <v>0.79945210548175183</v>
+      </c>
+      <c r="C93">
+        <v>0.29064818990991903</v>
+      </c>
+      <c r="D93">
+        <v>0.91083472897162032</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.12019025847755047</v>
+      </c>
+      <c r="B94">
+        <v>0.84609173030014728</v>
+      </c>
+      <c r="C94">
+        <v>0.34906604734823987</v>
+      </c>
+      <c r="D94">
+        <v>0.93991335308300583</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.14136756071709539</v>
+      </c>
+      <c r="B95">
+        <v>0.82190543035707431</v>
+      </c>
+      <c r="C95">
+        <v>0.32812550607600965</v>
+      </c>
+      <c r="D95">
+        <v>0.9293735575921771</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.17883550366711573</v>
+      </c>
+      <c r="B96">
+        <v>0.79700441766841335</v>
+      </c>
+      <c r="C96">
+        <v>0.2960762499948052</v>
+      </c>
+      <c r="D96">
+        <v>0.91121473447472534</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.1578139622787583</v>
+      </c>
+      <c r="B97">
+        <v>0.81561213407762012</v>
+      </c>
+      <c r="C97">
+        <v>0.31064140899653381</v>
+      </c>
+      <c r="D97">
+        <v>0.92122299919469119</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.10163136087042121</v>
+      </c>
+      <c r="B98">
+        <v>0.8560136004015696</v>
+      </c>
+      <c r="C98">
+        <v>0.37970760632645217</v>
+      </c>
+      <c r="D98">
+        <v>0.94918431956478932</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.13596043223482607</v>
+      </c>
+      <c r="B99">
+        <v>0.81662014146781503</v>
+      </c>
+      <c r="C99">
+        <v>0.34404655461157058</v>
+      </c>
+      <c r="D99">
+        <v>0.93208463788002516</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.080260322293580932</v>
+      </c>
+      <c r="B100">
+        <v>0.87916693471177099</v>
+      </c>
+      <c r="C100">
+        <v>0.40841652890327268</v>
+      </c>
+      <c r="D100">
+        <v>0.95986983885320942</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.12136710906010527</v>
+      </c>
+      <c r="B101">
+        <v>0.62537791446924895</v>
+      </c>
+      <c r="C101">
+        <v>0.62316626737002689</v>
+      </c>
+      <c r="D101">
+        <v>0.93980853188729652</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>0.1137556203205535</v>
+      </c>
+      <c r="B102">
+        <v>0.64057862805483523</v>
+      </c>
+      <c r="C102">
+        <v>0.62910293610904411</v>
+      </c>
+      <c r="D102">
+        <v>0.94397043038445827</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.12343776750556411</v>
+      </c>
+      <c r="B103">
+        <v>0.6777803883846647</v>
+      </c>
+      <c r="C103">
+        <v>0.54023369611165795</v>
+      </c>
+      <c r="D103">
+        <v>0.93847211885952819</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.16958386908692141</v>
+      </c>
+      <c r="B104">
+        <v>0.69973933781001463</v>
+      </c>
+      <c r="C104">
+        <v>0.38421832917059801</v>
+      </c>
+      <c r="D104">
+        <v>0.91585676169294283</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0.083660212323944882</v>
+      </c>
+      <c r="B105">
+        <v>0.82117952035428188</v>
+      </c>
+      <c r="C105">
+        <v>0.47325784576377417</v>
+      </c>
+      <c r="D105">
+        <v>0.95816989383802753</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0.11104058594230302</v>
+      </c>
+      <c r="B106">
+        <v>0.7400533281053514</v>
+      </c>
+      <c r="C106">
+        <v>0.50342526185734515</v>
+      </c>
+      <c r="D106">
+        <v>0.94469682116109521</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>0.12550826782325836</v>
+      </c>
+      <c r="B107">
+        <v>0.61868029539908442</v>
+      </c>
+      <c r="C107">
+        <v>0.60973047780435596</v>
+      </c>
+      <c r="D107">
+        <v>0.93794699864120945</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0.069874396135265693</v>
+      </c>
+      <c r="B108">
+        <v>0.77743375406003368</v>
+      </c>
+      <c r="C108">
+        <v>0.62549370554881611</v>
+      </c>
+      <c r="D108">
+        <v>0.96506280193236715</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0.04670238294854491</v>
+      </c>
+      <c r="B109">
+        <v>0.79648362301822473</v>
+      </c>
+      <c r="C109">
+        <v>0.73570834568208832</v>
+      </c>
+      <c r="D109">
+        <v>0.97664880852572755</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>0.022213371472020568</v>
+      </c>
+      <c r="B110">
+        <v>0.91927305705390083</v>
+      </c>
+      <c r="C110">
+        <v>0.70358425738375296</v>
+      </c>
+      <c r="D110">
+        <v>0.98889331426398974</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>0.030798720586613322</v>
+      </c>
+      <c r="B111">
+        <v>0.90490219716410347</v>
+      </c>
+      <c r="C111">
+        <v>0.64699554247632551</v>
+      </c>
+      <c r="D111">
+        <v>0.98460063970669331</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0.077183883206070225</v>
+      </c>
+      <c r="B112">
+        <v>0.75001222611155238</v>
+      </c>
+      <c r="C112">
+        <v>0.635371118380052</v>
+      </c>
+      <c r="D112">
+        <v>0.96142513353289893</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>0.033543553049461342</v>
+      </c>
+      <c r="B113">
+        <v>0.74245670170068845</v>
+      </c>
+      <c r="C113">
+        <v>0.84517752175578142</v>
+      </c>
+      <c r="D113">
+        <v>0.98322822347526928</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0.034393735119474488</v>
+      </c>
+      <c r="B114">
+        <v>0.78729688925472685</v>
+      </c>
+      <c r="C114">
+        <v>0.80701456901659374</v>
+      </c>
+      <c r="D114">
+        <v>0.98280313244026263</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0.051870881651017775</v>
+      </c>
+      <c r="B115">
+        <v>0.7722085773382561</v>
+      </c>
+      <c r="C115">
+        <v>0.72869411933774109</v>
+      </c>
+      <c r="D115">
+        <v>0.97406836091017368</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0.030092356559973055</v>
+      </c>
+      <c r="B116">
+        <v>0.87692225995304174</v>
+      </c>
+      <c r="C116">
+        <v>0.72712921569256261</v>
+      </c>
+      <c r="D116">
+        <v>0.98495382172001344</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0.052698148861502807</v>
+      </c>
+      <c r="B117">
+        <v>0.86829431618825759</v>
+      </c>
+      <c r="C117">
+        <v>0.55543415866170476</v>
+      </c>
+      <c r="D117">
+        <v>0.97365092556924859</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0.057895302590562178</v>
+      </c>
+      <c r="B118">
+        <v>0.74204547340412741</v>
+      </c>
+      <c r="C118">
+        <v>0.72874944016229448</v>
+      </c>
+      <c r="D118">
+        <v>0.97106463352835493</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0.092869399013922355</v>
+      </c>
+      <c r="B119">
+        <v>0.75547458172992321</v>
+      </c>
+      <c r="C119">
+        <v>0.55645121388786589</v>
+      </c>
+      <c r="D119">
+        <v>0.95368113927441478</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.14297256854241169</v>
+      </c>
+      <c r="B120">
+        <v>0.71424510534393426</v>
+      </c>
+      <c r="C120">
+        <v>0.42733714736229256</v>
+      </c>
+      <c r="D120">
+        <v>0.92890502432997457</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0.08685910438445936</v>
+      </c>
+      <c r="B121">
+        <v>0.65727588834995432</v>
+      </c>
+      <c r="C121">
+        <v>0.69316652537568757</v>
+      </c>
+      <c r="D121">
+        <v>0.95686170489415912</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.19728261086875684</v>
+      </c>
+      <c r="B122">
+        <v>0.68512408268470459</v>
+      </c>
+      <c r="C122">
+        <v>0.40308661969420861</v>
+      </c>
+      <c r="D122">
+        <v>0.90461614945906799</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0.20200970983402955</v>
+      </c>
+      <c r="B123">
+        <v>0.68070059917031001</v>
+      </c>
+      <c r="C123">
+        <v>0.32545469583205733</v>
+      </c>
+      <c r="D123">
+        <v>0.90071393624628349</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0.25363826322805627</v>
+      </c>
+      <c r="B124">
+        <v>0.64835355335593503</v>
+      </c>
+      <c r="C124">
+        <v>0.35570753191914284</v>
+      </c>
+      <c r="D124">
+        <v>0.88225365517644327</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0.11368357382189785</v>
+      </c>
+      <c r="B125">
+        <v>0.61869945239508173</v>
+      </c>
+      <c r="C125">
+        <v>0.65003548686682688</v>
+      </c>
+      <c r="D125">
+        <v>0.94446345714581326</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0.061148213354840615</v>
+      </c>
+      <c r="B126">
+        <v>0.61166286182021912</v>
+      </c>
+      <c r="C126">
+        <v>0.78711395668155071</v>
+      </c>
+      <c r="D126">
+        <v>0.96950457849337568</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0.063616252090864939</v>
+      </c>
+      <c r="B127">
+        <v>0.69017899748797007</v>
+      </c>
+      <c r="C127">
+        <v>0.74338157080817946</v>
+      </c>
+      <c r="D127">
+        <v>0.96823765633456449</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0.1521088262403458</v>
+      </c>
+      <c r="B128">
+        <v>0.65012606345761059</v>
+      </c>
+      <c r="C128">
+        <v>0.51283260118471197</v>
+      </c>
+      <c r="D128">
+        <v>0.92611903929483308</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0.21728794814641686</v>
+      </c>
+      <c r="B129">
+        <v>0.65506379431921669</v>
+      </c>
+      <c r="C129">
+        <v>0.43548515346202021</v>
+      </c>
+      <c r="D129">
+        <v>0.89861301926267123</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>0.17572441238651912</v>
+      </c>
+      <c r="B130">
+        <v>0.69263043039800665</v>
+      </c>
+      <c r="C130">
+        <v>0.44722540333607069</v>
+      </c>
+      <c r="D130">
+        <v>0.91458276333789312</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>0.12458139798345984</v>
+      </c>
+      <c r="B131">
+        <v>0.65378970427980898</v>
+      </c>
+      <c r="C131">
+        <v>0.58093450719171935</v>
+      </c>
+      <c r="D131">
+        <v>0.93879951663456807</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>0.040107287733583574</v>
+      </c>
+      <c r="B132">
+        <v>0.73518300133161174</v>
+      </c>
+      <c r="C132">
+        <v>0.81032019649200515</v>
+      </c>
+      <c r="D132">
+        <v>0.97994635613320802</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>0.093706145763548535</v>
+      </c>
+      <c r="B133">
+        <v>0.63136800816546756</v>
+      </c>
+      <c r="C133">
+        <v>0.68476915375858349</v>
+      </c>
+      <c r="D133">
+        <v>0.95360765370285483</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0.022826154709218973</v>
+      </c>
+      <c r="B134">
+        <v>0.47139594732117845</v>
+      </c>
+      <c r="C134">
+        <v>0.93525356877156907</v>
+      </c>
+      <c r="D134">
+        <v>0.98858692264539061</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>0.13373743231713775</v>
+      </c>
+      <c r="B135">
+        <v>0.56625584195710787</v>
+      </c>
+      <c r="C135">
+        <v>0.65493850923212271</v>
+      </c>
+      <c r="D135">
+        <v>0.93660023383464674</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>0.097346814814202653</v>
+      </c>
+      <c r="B136">
+        <v>0.7206687163851534</v>
+      </c>
+      <c r="C136">
+        <v>0.57634321210984896</v>
+      </c>
+      <c r="D136">
+        <v>0.95139821468170171</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0.091330621651839305</v>
+      </c>
+      <c r="B137">
+        <v>0.7361767407689801</v>
+      </c>
+      <c r="C137">
+        <v>0.57489681669586656</v>
+      </c>
+      <c r="D137">
+        <v>0.95434383481149709</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>0.091164805865689036</v>
+      </c>
+      <c r="B138">
+        <v>0.77065329447783437</v>
+      </c>
+      <c r="C138">
+        <v>0.52830910304595402</v>
+      </c>
+      <c r="D138">
+        <v>0.95441759706715545</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0.10457451980773846</v>
+      </c>
+      <c r="B139">
+        <v>0.61365290288705532</v>
+      </c>
+      <c r="C139">
+        <v>0.66628567219361845</v>
+      </c>
+      <c r="D139">
+        <v>0.94831176237688763</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0.12145346239761728</v>
+      </c>
+      <c r="B140">
+        <v>0.61777002299060513</v>
+      </c>
+      <c r="C140">
+        <v>0.62442473913716023</v>
+      </c>
+      <c r="D140">
+        <v>0.94021841648051629</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0.14672165565161371</v>
+      </c>
+      <c r="B141">
+        <v>0.67840086120116849</v>
+      </c>
+      <c r="C141">
+        <v>0.43859579005216959</v>
+      </c>
+      <c r="D141">
+        <v>0.92663917217419334</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0.28720591114045602</v>
+      </c>
+      <c r="B142">
+        <v>0.6294232070684439</v>
+      </c>
+      <c r="C142">
+        <v>0.29151845993150383</v>
+      </c>
+      <c r="D142">
+        <v>0.8618535796087331</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>0.25114827950047358</v>
+      </c>
+      <c r="B143">
+        <v>0.6214664266286033</v>
+      </c>
+      <c r="C143">
+        <v>0.33860253258680528</v>
+      </c>
+      <c r="D143">
+        <v>0.87789795409536442</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0.12967818349311114</v>
+      </c>
+      <c r="B144">
+        <v>0.76451519269894963</v>
+      </c>
+      <c r="C144">
+        <v>0.39259033750289346</v>
+      </c>
+      <c r="D144">
+        <v>0.93516090825344467</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0.12969618043529457</v>
+      </c>
+      <c r="B145">
+        <v>0.7650148572831158</v>
+      </c>
+      <c r="C145">
+        <v>0.39113536723814407</v>
+      </c>
+      <c r="D145">
+        <v>0.93515560419870425</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.23014413429662225</v>
+      </c>
+      <c r="B146">
+        <v>0.61208627989616304</v>
+      </c>
+      <c r="C146">
+        <v>0.31333681874861841</v>
+      </c>
+      <c r="D146">
+        <v>0.88535877990497436</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.23101137164134039</v>
+      </c>
+      <c r="B147">
+        <v>0.58746620757137724</v>
+      </c>
+      <c r="C147">
+        <v>0.40921801140077724</v>
+      </c>
+      <c r="D147">
+        <v>0.88668109087249669</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>0.16299873236868992</v>
+      </c>
+      <c r="B148">
+        <v>0.63857565924997606</v>
+      </c>
+      <c r="C148">
+        <v>0.44690868311747067</v>
+      </c>
+      <c r="D148">
+        <v>0.91855150865084167</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.1759226805577378</v>
+      </c>
+      <c r="B149">
+        <v>0.66978951258404951</v>
+      </c>
+      <c r="C149">
+        <v>0.4040486596873894</v>
+      </c>
+      <c r="D149">
+        <v>0.91218906575026426</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0.30646286595690919</v>
+      </c>
+      <c r="B150">
+        <v>0.60608715793070578</v>
+      </c>
+      <c r="C150">
+        <v>0.27541760293118106</v>
+      </c>
+      <c r="D150">
+        <v>0.8536386069846873</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>0.23082683409362176</v>
+      </c>
+      <c r="B151">
+        <v>0.65823369710753066</v>
+      </c>
+      <c r="C151">
+        <v>0.29735592605682143</v>
+      </c>
+      <c r="D151">
+        <v>0.88504003095654649</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.22993049209950822</v>
+      </c>
+      <c r="B152">
+        <v>0.68268676695276043</v>
+      </c>
+      <c r="C152">
+        <v>0.29108503032595368</v>
+      </c>
+      <c r="D152">
+        <v>0.88582332011165998</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0.23554917947745574</v>
+      </c>
+      <c r="B153">
+        <v>0.6125583938768947</v>
+      </c>
+      <c r="C153">
+        <v>0.30690615738032762</v>
+      </c>
+      <c r="D153">
+        <v>0.88249253772281</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>0.28910554073077976</v>
+      </c>
+      <c r="B154">
+        <v>0.55119266758354823</v>
+      </c>
+      <c r="C154">
+        <v>0.34787570101036469</v>
+      </c>
+      <c r="D154">
+        <v>0.86275502699976903</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0.26158814512008177</v>
+      </c>
+      <c r="B155">
+        <v>0.61044398848812387</v>
+      </c>
+      <c r="C155">
+        <v>0.36344132420468794</v>
+      </c>
+      <c r="D155">
+        <v>0.87452801907681843</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.05539352472240177</v>
+      </c>
+      <c r="B156">
+        <v>0.67117452928458421</v>
+      </c>
+      <c r="C156">
+        <v>0.78095044251843382</v>
+      </c>
+      <c r="D156">
+        <v>0.97230323763879911</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.040949294607831199</v>
+      </c>
+      <c r="B157">
+        <v>0.66409680571480678</v>
+      </c>
+      <c r="C157">
+        <v>0.8441205734357079</v>
+      </c>
+      <c r="D157">
+        <v>0.97952535269608432</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.089905999009440934</v>
+      </c>
+      <c r="B158">
+        <v>0.62852302006020244</v>
+      </c>
+      <c r="C158">
+        <v>0.69331601223703532</v>
+      </c>
+      <c r="D158">
+        <v>0.95504700049527957</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.17935746074753003</v>
+      </c>
+      <c r="B159">
+        <v>0.66647643942354595</v>
+      </c>
+      <c r="C159">
+        <v>0.36938619353981605</v>
+      </c>
+      <c r="D159">
+        <v>0.91037066044342374</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0.1672570194384449</v>
+      </c>
+      <c r="B160">
+        <v>0.70062611278601028</v>
+      </c>
+      <c r="C160">
+        <v>0.36883089549333659</v>
+      </c>
+      <c r="D160">
+        <v>0.91641392899094398</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.051741810098105773</v>
+      </c>
+      <c r="B161">
+        <v>0.87826055657282998</v>
+      </c>
+      <c r="C161">
+        <v>0.52762756868981087</v>
+      </c>
+      <c r="D161">
+        <v>0.97412909495094713</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.084596009547546522</v>
+      </c>
+      <c r="B162">
+        <v>0.6797742714480054</v>
+      </c>
+      <c r="C162">
+        <v>0.67064967665467079</v>
+      </c>
+      <c r="D162">
+        <v>0.95772543917102215</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.056795131845841784</v>
+      </c>
+      <c r="B163">
+        <v>0.74238582384390539</v>
+      </c>
+      <c r="C163">
+        <v>0.73404227630325436</v>
+      </c>
+      <c r="D163">
+        <v>0.97160243407707936</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0.1060687895746906</v>
+      </c>
+      <c r="B164">
+        <v>0.78971928161739602</v>
+      </c>
+      <c r="C164">
+        <v>0.4052029791848748</v>
+      </c>
+      <c r="D164">
+        <v>0.94696560521265472</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0.23201908553198097</v>
+      </c>
+      <c r="B165">
+        <v>0.55800063732770211</v>
+      </c>
+      <c r="C165">
+        <v>0.42296514829213366</v>
+      </c>
+      <c r="D165">
+        <v>0.88752938980567853</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>0.22469438952827953</v>
+      </c>
+      <c r="B166">
+        <v>0.59983793411309494</v>
+      </c>
+      <c r="C166">
+        <v>0.40436909446047609</v>
+      </c>
+      <c r="D166">
+        <v>0.88971921056066028</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.15315960269726883</v>
+      </c>
+      <c r="B167">
+        <v>0.6508944374325204</v>
+      </c>
+      <c r="C167">
+        <v>0.52081493464289885</v>
+      </c>
+      <c r="D167">
+        <v>0.92360310308808413</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.28407958142120171</v>
+      </c>
+      <c r="B168">
+        <v>0.60742484475447434</v>
+      </c>
+      <c r="C168">
+        <v>0.27471051556672438</v>
+      </c>
+      <c r="D168">
+        <v>0.86138903052826143</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.32093478477978626</v>
+      </c>
+      <c r="B169">
+        <v>0.59974617942848074</v>
+      </c>
+      <c r="C169">
+        <v>0.2995774727808409</v>
+      </c>
+      <c r="D169">
+        <v>0.85010519657778216</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.21882829575137272</v>
+      </c>
+      <c r="B170">
+        <v>0.61041632821313185</v>
+      </c>
+      <c r="C170">
+        <v>0.41550782684941873</v>
+      </c>
+      <c r="D170">
+        <v>0.89270690809152342</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>0.24687148285583752</v>
+      </c>
+      <c r="B171">
+        <v>0.61254690858951477</v>
+      </c>
+      <c r="C171">
+        <v>0.38103823825164757</v>
+      </c>
+      <c r="D171">
+        <v>0.8809498161953615</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>0.20983177555180568</v>
+      </c>
+      <c r="B172">
+        <v>0.67129190354185753</v>
+      </c>
+      <c r="C172">
+        <v>0.38658084167810214</v>
+      </c>
+      <c r="D172">
+        <v>0.89605747635403332</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.18208325802759207</v>
+      </c>
+      <c r="B173">
+        <v>0.66701783502550738</v>
+      </c>
+      <c r="C173">
+        <v>0.43851448514601843</v>
+      </c>
+      <c r="D173">
+        <v>0.90947781325514931</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0.25495519620970236</v>
+      </c>
+      <c r="B174">
+        <v>0.65163782973858453</v>
+      </c>
+      <c r="C174">
+        <v>0.33696438493649605</v>
+      </c>
+      <c r="D174">
+        <v>0.8746626841075289</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>0.3029129035606769</v>
+      </c>
+      <c r="B175">
+        <v>0.61939718071809202</v>
+      </c>
+      <c r="C175">
+        <v>0.3034083470876226</v>
+      </c>
+      <c r="D175">
+        <v>0.85467836257309948</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0.3052383416709793</v>
+      </c>
+      <c r="B176">
+        <v>0.59898005035797475</v>
+      </c>
+      <c r="C176">
+        <v>0.3098274062288055</v>
+      </c>
+      <c r="D176">
+        <v>0.85530798177856993</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0.35308302176322304</v>
+      </c>
+      <c r="B177">
+        <v>0.61456512201390545</v>
+      </c>
+      <c r="C177">
+        <v>0.26341561712700795</v>
+      </c>
+      <c r="D177">
+        <v>0.83834145919006653</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0.2698640091352642</v>
+      </c>
+      <c r="B178">
+        <v>0.61966173756802179</v>
+      </c>
+      <c r="C178">
+        <v>0.3509920141571895</v>
+      </c>
+      <c r="D178">
+        <v>0.87156302986262524</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.1395533381452263</v>
+      </c>
+      <c r="B179">
+        <v>0.64185309485447517</v>
+      </c>
+      <c r="C179">
+        <v>0.54834246632879946</v>
+      </c>
+      <c r="D179">
+        <v>0.9304765884523013</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.18262828684077903</v>
+      </c>
+      <c r="B180">
+        <v>0.68404180566963524</v>
+      </c>
+      <c r="C180">
+        <v>0.36151800009780877</v>
+      </c>
+      <c r="D180">
+        <v>0.90888348699097821</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>0.051741810098105773</v>
+      </c>
+      <c r="B181">
+        <v>0.87826055657282998</v>
+      </c>
+      <c r="C181">
+        <v>0.52762756868981087</v>
+      </c>
+      <c r="D181">
+        <v>0.97412909495094713</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>0.084596009547546522</v>
+      </c>
+      <c r="B182">
+        <v>0.6797742714480054</v>
+      </c>
+      <c r="C182">
+        <v>0.67064967665467079</v>
+      </c>
+      <c r="D182">
+        <v>0.95772543917102215</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>0.056795131845841784</v>
+      </c>
+      <c r="B183">
+        <v>0.74238582384390539</v>
+      </c>
+      <c r="C183">
+        <v>0.73404227630325436</v>
+      </c>
+      <c r="D183">
+        <v>0.97160243407707936</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.1060687895746906</v>
+      </c>
+      <c r="B184">
+        <v>0.78971928161739602</v>
+      </c>
+      <c r="C184">
+        <v>0.4052029791848748</v>
+      </c>
+      <c r="D184">
+        <v>0.94696560521265472</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>0.23201908553198097</v>
+      </c>
+      <c r="B185">
+        <v>0.55800063732770211</v>
+      </c>
+      <c r="C185">
+        <v>0.42296514829213366</v>
+      </c>
+      <c r="D185">
+        <v>0.88752938980567853</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>0.22469438952827953</v>
+      </c>
+      <c r="B186">
+        <v>0.59983793411309494</v>
+      </c>
+      <c r="C186">
+        <v>0.40436909446047609</v>
+      </c>
+      <c r="D186">
+        <v>0.88971921056066028</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.15315960269726883</v>
+      </c>
+      <c r="B187">
+        <v>0.6508944374325204</v>
+      </c>
+      <c r="C187">
+        <v>0.52081493464289885</v>
+      </c>
+      <c r="D187">
+        <v>0.92360310308808413</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>0.28407958142120171</v>
+      </c>
+      <c r="B188">
+        <v>0.60742484475447434</v>
+      </c>
+      <c r="C188">
+        <v>0.27471051556672438</v>
+      </c>
+      <c r="D188">
+        <v>0.86138903052826143</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>0.32093478477978626</v>
+      </c>
+      <c r="B189">
+        <v>0.59974617942848074</v>
+      </c>
+      <c r="C189">
+        <v>0.2995774727808409</v>
+      </c>
+      <c r="D189">
+        <v>0.85010519657778216</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>0.21882829575137272</v>
+      </c>
+      <c r="B190">
+        <v>0.61041632821313185</v>
+      </c>
+      <c r="C190">
+        <v>0.41550782684941873</v>
+      </c>
+      <c r="D190">
+        <v>0.89270690809152342</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.24687148285583752</v>
+      </c>
+      <c r="B191">
+        <v>0.61254690858951477</v>
+      </c>
+      <c r="C191">
+        <v>0.38103823825164757</v>
+      </c>
+      <c r="D191">
+        <v>0.8809498161953615</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.20983177555180568</v>
+      </c>
+      <c r="B192">
+        <v>0.67129190354185753</v>
+      </c>
+      <c r="C192">
+        <v>0.38658084167810214</v>
+      </c>
+      <c r="D192">
+        <v>0.89605747635403332</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.18208325802759207</v>
+      </c>
+      <c r="B193">
+        <v>0.66701783502550738</v>
+      </c>
+      <c r="C193">
+        <v>0.43851448514601843</v>
+      </c>
+      <c r="D193">
+        <v>0.90947781325514931</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>0.25495519620970236</v>
+      </c>
+      <c r="B194">
+        <v>0.65163782973858453</v>
+      </c>
+      <c r="C194">
+        <v>0.33696438493649605</v>
+      </c>
+      <c r="D194">
+        <v>0.8746626841075289</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>0.3029129035606769</v>
+      </c>
+      <c r="B195">
+        <v>0.61939718071809202</v>
+      </c>
+      <c r="C195">
+        <v>0.3034083470876226</v>
+      </c>
+      <c r="D195">
+        <v>0.85467836257309948</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>0.3052383416709793</v>
+      </c>
+      <c r="B196">
+        <v>0.59898005035797475</v>
+      </c>
+      <c r="C196">
+        <v>0.3098274062288055</v>
+      </c>
+      <c r="D196">
+        <v>0.85530798177856993</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0.35308302176322304</v>
+      </c>
+      <c r="B197">
+        <v>0.61456512201390545</v>
+      </c>
+      <c r="C197">
+        <v>0.26341561712700795</v>
+      </c>
+      <c r="D197">
+        <v>0.83834145919006653</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>0.2698640091352642</v>
+      </c>
+      <c r="B198">
+        <v>0.61966173756802179</v>
+      </c>
+      <c r="C198">
+        <v>0.3509920141571895</v>
+      </c>
+      <c r="D198">
+        <v>0.87156302986262524</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>0.1395533381452263</v>
+      </c>
+      <c r="B199">
+        <v>0.64185309485447517</v>
+      </c>
+      <c r="C199">
+        <v>0.54834246632879946</v>
+      </c>
+      <c r="D199">
+        <v>0.9304765884523013</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>0.18262828684077903</v>
+      </c>
+      <c r="B200">
+        <v>0.68404180566963524</v>
+      </c>
+      <c r="C200">
+        <v>0.36151800009780877</v>
+      </c>
+      <c r="D200">
+        <v>0.90888348699097821</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>0.10921369995176072</v>
+      </c>
+      <c r="B201">
+        <v>0.75943067527507147</v>
+      </c>
+      <c r="C201">
+        <v>0.50865649464848439</v>
+      </c>
+      <c r="D201">
+        <v>0.94560754676528913</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>0.066456032937440151</v>
+      </c>
+      <c r="B202">
+        <v>0.81716137709652936</v>
+      </c>
+      <c r="C202">
+        <v>0.60885330298576468</v>
+      </c>
+      <c r="D202">
+        <v>0.96677562141952222</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>0.076940024064941437</v>
+      </c>
+      <c r="B203">
+        <v>0.72638233058659119</v>
+      </c>
+      <c r="C203">
+        <v>0.7010582183833427</v>
+      </c>
+      <c r="D203">
+        <v>0.96209368218621361</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>0.049137173248523479</v>
+      </c>
+      <c r="B204">
+        <v>0.75251255413358842</v>
+      </c>
+      <c r="C204">
+        <v>0.78150585956046947</v>
+      </c>
+      <c r="D204">
+        <v>0.97557131232206606</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.069838295377045223</v>
+      </c>
+      <c r="B205">
+        <v>0.72473301144474223</v>
+      </c>
+      <c r="C205">
+        <v>0.72603606373730267</v>
+      </c>
+      <c r="D205">
+        <v>0.96542079108000656</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0.10291887269388936</v>
+      </c>
+      <c r="B206">
+        <v>0.72873443298906626</v>
+      </c>
+      <c r="C206">
+        <v>0.59601197973676823</v>
+      </c>
+      <c r="D206">
+        <v>0.94905366148119275</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>0.12642781006924711</v>
+      </c>
+      <c r="B207">
+        <v>0.76587766442671767</v>
+      </c>
+      <c r="C207">
+        <v>0.45653802103841501</v>
+      </c>
+      <c r="D207">
+        <v>0.93708854800588326</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>0.069938946986640882</v>
+      </c>
+      <c r="B208">
+        <v>0.73482418594647925</v>
+      </c>
+      <c r="C208">
+        <v>0.71339166975011326</v>
+      </c>
+      <c r="D208">
+        <v>0.96522754393152743</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.1385155802466467</v>
+      </c>
+      <c r="B209">
+        <v>0.75837735187955513</v>
+      </c>
+      <c r="C209">
+        <v>0.43400450082668263</v>
+      </c>
+      <c r="D209">
+        <v>0.93086326347531934</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>0.055640401983520937</v>
+      </c>
+      <c r="B210">
+        <v>0.82355648880911236</v>
+      </c>
+      <c r="C210">
+        <v>0.6506696796440069</v>
+      </c>
+      <c r="D210">
+        <v>0.97218538560431966</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.064575588414597707</v>
+      </c>
+      <c r="B211">
+        <v>0.83411778222181865</v>
+      </c>
+      <c r="C211">
+        <v>0.57037567821903723</v>
+      </c>
+      <c r="D211">
+        <v>0.96771539341198776</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>0.10811546100062572</v>
+      </c>
+      <c r="B212">
+        <v>0.74481170088390813</v>
+      </c>
+      <c r="C212">
+        <v>0.55734212533992522</v>
+      </c>
+      <c r="D212">
+        <v>0.94630098172280608</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>0.16561782602387842</v>
+      </c>
+      <c r="B213">
+        <v>0.68291926873999254</v>
+      </c>
+      <c r="C213">
+        <v>0.49467857036945767</v>
+      </c>
+      <c r="D213">
+        <v>0.91898139851108429</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>0.069472080176998935</v>
+      </c>
+      <c r="B214">
+        <v>0.8203234608096388</v>
+      </c>
+      <c r="C214">
+        <v>0.5724332013405895</v>
+      </c>
+      <c r="D214">
+        <v>0.96526786717265689</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>0.06618808917018465</v>
+      </c>
+      <c r="B215">
+        <v>0.76052434874783126</v>
+      </c>
+      <c r="C215">
+        <v>0.70410336639971172</v>
+      </c>
+      <c r="D215">
+        <v>0.96702988695570091</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.097371739747395117</v>
+      </c>
+      <c r="B216">
+        <v>0.68820515629325563</v>
+      </c>
+      <c r="C216">
+        <v>0.67027457739118945</v>
+      </c>
+      <c r="D216">
+        <v>0.95279839904517416</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>0.092817227749761477</v>
+      </c>
+      <c r="B217">
+        <v>0.77272589466170571</v>
+      </c>
+      <c r="C217">
+        <v>0.55383400467702848</v>
+      </c>
+      <c r="D217">
+        <v>0.95359509484589799</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.1255250256056058</v>
+      </c>
+      <c r="B218">
+        <v>0.74915187762598145</v>
+      </c>
+      <c r="C218">
+        <v>0.47065580363280957</v>
+      </c>
+      <c r="D218">
+        <v>0.93768613873368101</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.18880254746797839</v>
+      </c>
+      <c r="B219">
+        <v>0.68702141619255896</v>
+      </c>
+      <c r="C219">
+        <v>0.42573146468534906</v>
+      </c>
+      <c r="D219">
+        <v>0.9097982990476039</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.10239463460032794</v>
+      </c>
+      <c r="B220">
+        <v>0.7542437871526394</v>
+      </c>
+      <c r="C220">
+        <v>0.60102491076938314</v>
+      </c>
+      <c r="D220">
+        <v>0.94938964639376799</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>0.13697790059330733</v>
+      </c>
+      <c r="B221">
+        <v>0.6357608140812484</v>
+      </c>
+      <c r="C221">
+        <v>0.6620017303108009</v>
+      </c>
+      <c r="D221">
+        <v>0.93830982516027184</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>0.15005338839467663</v>
+      </c>
+      <c r="B222">
+        <v>0.70313235343174474</v>
+      </c>
+      <c r="C222">
+        <v>0.46042986108008299</v>
+      </c>
+      <c r="D222">
+        <v>0.9265533440446958</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>0.35175159740191159</v>
+      </c>
+      <c r="B223">
+        <v>0.63234165615923965</v>
+      </c>
+      <c r="C223">
+        <v>0.23240981417780945</v>
+      </c>
+      <c r="D223">
+        <v>0.84235799405044798</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>0.17903385293980606</v>
+      </c>
+      <c r="B224">
+        <v>0.63382758762677527</v>
+      </c>
+      <c r="C224">
+        <v>0.54260501101926017</v>
+      </c>
+      <c r="D224">
+        <v>0.91685088450447549</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>0.33504749594320016</v>
+      </c>
+      <c r="B225">
+        <v>0.6253480246732559</v>
+      </c>
+      <c r="C225">
+        <v>0.33221404455443493</v>
+      </c>
+      <c r="D225">
+        <v>0.85650126392369652</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0.40273882197657146</v>
+      </c>
+      <c r="B226">
+        <v>0.63690005552532181</v>
+      </c>
+      <c r="C226">
+        <v>0.22557164227246443</v>
+      </c>
+      <c r="D226">
+        <v>0.82526035807672515</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>0.35213316289935453</v>
+      </c>
+      <c r="B227">
+        <v>0.66973504733899447</v>
+      </c>
+      <c r="C227">
+        <v>0.24161440653166133</v>
+      </c>
+      <c r="D227">
+        <v>0.84032299643237329</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>0.27732619179401391</v>
+      </c>
+      <c r="B228">
+        <v>0.67880833299836052</v>
+      </c>
+      <c r="C228">
+        <v>0.26458551998213631</v>
+      </c>
+      <c r="D228">
+        <v>0.86781388810981697</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0.35984692182130895</v>
+      </c>
+      <c r="B229">
+        <v>0.60478094253406645</v>
+      </c>
+      <c r="C229">
+        <v>0.24292037007813269</v>
+      </c>
+      <c r="D229">
+        <v>0.83942980325997119</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0.21597884203895273</v>
+      </c>
+      <c r="B230">
+        <v>0.63104627464326923</v>
+      </c>
+      <c r="C230">
+        <v>0.43328012166688024</v>
+      </c>
+      <c r="D230">
+        <v>0.89973613287588261</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>0.12640773569701852</v>
+      </c>
+      <c r="B231">
+        <v>0.70834392677266766</v>
+      </c>
+      <c r="C231">
+        <v>0.52935126960205348</v>
+      </c>
+      <c r="D231">
+        <v>0.9375181305398872</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>0.24889091005849032</v>
+      </c>
+      <c r="B232">
+        <v>0.5866275413688723</v>
+      </c>
+      <c r="C232">
+        <v>0.42290014676822868</v>
+      </c>
+      <c r="D232">
+        <v>0.88931798427035502</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>0.18641324105385179</v>
+      </c>
+      <c r="B233">
+        <v>0.61443540804436847</v>
+      </c>
+      <c r="C233">
+        <v>0.61081055869983725</v>
+      </c>
+      <c r="D233">
+        <v>0.92143554497710178</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>0.16206140218369897</v>
+      </c>
+      <c r="B234">
+        <v>0.62754770816994543</v>
+      </c>
+      <c r="C234">
+        <v>0.63882491490249316</v>
+      </c>
+      <c r="D234">
+        <v>0.93007258855541919</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>0.41913988278427494</v>
+      </c>
+      <c r="B235">
+        <v>0.60028612704984186</v>
+      </c>
+      <c r="C235">
+        <v>0.32401802189769979</v>
+      </c>
+      <c r="D235">
+        <v>0.83750742633874808</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>0.26396908203589686</v>
+      </c>
+      <c r="B236">
+        <v>0.57710783134398613</v>
+      </c>
+      <c r="C236">
+        <v>0.46323573480022673</v>
+      </c>
+      <c r="D236">
+        <v>0.88812499879105811</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>0.08624652485091544</v>
+      </c>
+      <c r="B237">
+        <v>0.75471249900928961</v>
+      </c>
+      <c r="C237">
+        <v>0.61804038441404596</v>
+      </c>
+      <c r="D237">
+        <v>0.95692560344993083</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>0.19782831366335835</v>
+      </c>
+      <c r="B238">
+        <v>0.67957697754288482</v>
+      </c>
+      <c r="C238">
+        <v>0.46545878141746622</v>
+      </c>
+      <c r="D238">
+        <v>0.90715628842120488</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>0.10683522907349367</v>
+      </c>
+      <c r="B239">
+        <v>0.6147413627108721</v>
+      </c>
+      <c r="C239">
+        <v>0.72505467817852298</v>
+      </c>
+      <c r="D239">
+        <v>0.95111748893662473</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>0.09331581649269427</v>
+      </c>
+      <c r="B240">
+        <v>0.70586126932578652</v>
+      </c>
+      <c r="C240">
+        <v>0.66070880699940115</v>
+      </c>
+      <c r="D240">
+        <v>0.95414295361165236</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>0.15430785180335024</v>
+      </c>
+      <c r="B241">
+        <v>0.62711155063194401</v>
+      </c>
+      <c r="C241">
+        <v>0.56032716554640827</v>
+      </c>
+      <c r="D241">
+        <v>0.92528479535354635</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>0.28343236564616225</v>
+      </c>
+      <c r="B242">
+        <v>0.56163516790897683</v>
+      </c>
+      <c r="C242">
+        <v>0.39871603145804246</v>
+      </c>
+      <c r="D242">
+        <v>0.86809650463093946</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>0.18739743135754239</v>
+      </c>
+      <c r="B243">
+        <v>0.61099846900781796</v>
+      </c>
+      <c r="C243">
+        <v>0.47567954973186066</v>
+      </c>
+      <c r="D243">
+        <v>0.90664143462196989</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>0.079108453826286784</v>
+      </c>
+      <c r="B244">
+        <v>0.68584943822624678</v>
+      </c>
+      <c r="C244">
+        <v>0.70098084177961462</v>
+      </c>
+      <c r="D244">
+        <v>0.96044577308685652</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>0.20031646341675935</v>
+      </c>
+      <c r="B245">
+        <v>0.59277953497686908</v>
+      </c>
+      <c r="C245">
+        <v>0.48965521288768127</v>
+      </c>
+      <c r="D245">
+        <v>0.90135205625706494</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>0.31339085969958458</v>
+      </c>
+      <c r="B246">
+        <v>0.5576017964589518</v>
+      </c>
+      <c r="C246">
+        <v>0.3562591548426382</v>
+      </c>
+      <c r="D246">
+        <v>0.85286472530846802</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>0.23256011242378752</v>
+      </c>
+      <c r="B247">
+        <v>0.64577634486821411</v>
+      </c>
+      <c r="C247">
+        <v>0.37258083389034247</v>
+      </c>
+      <c r="D247">
+        <v>0.88658709462458385</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.18143175672470233</v>
+      </c>
+      <c r="B248">
+        <v>0.66217721339325875</v>
+      </c>
+      <c r="C248">
+        <v>0.4553914369934185</v>
+      </c>
+      <c r="D248">
+        <v>0.91027931959664954</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.15949736114601656</v>
+      </c>
+      <c r="B249">
+        <v>0.73391842223708559</v>
+      </c>
+      <c r="C249">
+        <v>0.40172355835717305</v>
+      </c>
+      <c r="D249">
+        <v>0.92033174164362896</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.16785836553039568</v>
+      </c>
+      <c r="B250">
+        <v>0.71978922675839796</v>
+      </c>
+      <c r="C250">
+        <v>0.39366130080999284</v>
+      </c>
+      <c r="D250">
+        <v>0.91635339060878251</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>0.27315898028215496</v>
+      </c>
+      <c r="B251">
+        <v>0.62163704656113494</v>
+      </c>
+      <c r="C251">
+        <v>0.373473001945342</v>
+      </c>
+      <c r="D251">
+        <v>0.87197123449660363</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>0.38945646269787831</v>
+      </c>
+      <c r="B252">
+        <v>0.58423680475720896</v>
+      </c>
+      <c r="C252">
+        <v>0.28828344270585216</v>
+      </c>
+      <c r="D252">
+        <v>0.82919551969052863</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>0.11651084262096696</v>
+      </c>
+      <c r="B253">
+        <v>0.64327119266793997</v>
+      </c>
+      <c r="C253">
+        <v>0.63341810584427405</v>
+      </c>
+      <c r="D253">
+        <v>0.94186429319644238</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>0.22651197765603182</v>
+      </c>
+      <c r="B254">
+        <v>0.54091363680070725</v>
+      </c>
+      <c r="C254">
+        <v>0.48376482404329296</v>
+      </c>
+      <c r="D254">
+        <v>0.89129122354710488</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>0.25654963570307526</v>
+      </c>
+      <c r="B255">
+        <v>0.59793656190112066</v>
+      </c>
+      <c r="C255">
+        <v>0.40589357930109854</v>
+      </c>
+      <c r="D255">
+        <v>0.8761887913301416</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>0.33061480320766895</v>
+      </c>
+      <c r="B256">
+        <v>0.55568781150129465</v>
+      </c>
+      <c r="C256">
+        <v>0.32509961488537364</v>
+      </c>
+      <c r="D256">
+        <v>0.84377699941622886</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>0.16121453327572666</v>
+      </c>
+      <c r="B257">
+        <v>0.7300405883787594</v>
+      </c>
+      <c r="C257">
+        <v>0.40786100867375247</v>
+      </c>
+      <c r="D257">
+        <v>0.91947262580168387</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>0.089948024611801819</v>
+      </c>
+      <c r="B258">
+        <v>0.84309498678487449</v>
+      </c>
+      <c r="C258">
+        <v>0.40999569103814804</v>
+      </c>
+      <c r="D258">
+        <v>0.95502598769409919</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>0.28353474142495733</v>
+      </c>
+      <c r="B259">
+        <v>0.69055387611077046</v>
+      </c>
+      <c r="C259">
+        <v>0.24677874316260859</v>
+      </c>
+      <c r="D259">
+        <v>0.86120609519326941</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>0.15299734237646861</v>
+      </c>
+      <c r="B260">
+        <v>0.75071814830968497</v>
+      </c>
+      <c r="C260">
+        <v>0.38024353963232604</v>
+      </c>
+      <c r="D260">
+        <v>0.92353660345290645</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>0.13095983245876175</v>
+      </c>
+      <c r="B261">
+        <v>0.71197749906107555</v>
+      </c>
+      <c r="C261">
+        <v>0.46961279709715953</v>
+      </c>
+      <c r="D261">
+        <v>0.93453263367610262</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>0.11853873196155075</v>
+      </c>
+      <c r="B262">
+        <v>0.75608558206607068</v>
+      </c>
+      <c r="C262">
+        <v>0.45673046802082173</v>
+      </c>
+      <c r="D262">
+        <v>0.94073063401922452</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>0.19492441343457145</v>
+      </c>
+      <c r="B263">
+        <v>0.66938496263771574</v>
+      </c>
+      <c r="C263">
+        <v>0.34426772277517553</v>
+      </c>
+      <c r="D263">
+        <v>0.90262899879152703</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>0.14693294608752333</v>
+      </c>
+      <c r="B264">
+        <v>0.72971631945108106</v>
+      </c>
+      <c r="C264">
+        <v>0.38441948922110952</v>
+      </c>
+      <c r="D264">
+        <v>0.92653991715112316</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>0.1985156806920409</v>
+      </c>
+      <c r="B265">
+        <v>0.66160079166110441</v>
+      </c>
+      <c r="C265">
+        <v>0.33332108993744819</v>
+      </c>
+      <c r="D265">
+        <v>0.90088210726109408</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>0.3441266147631955</v>
+      </c>
+      <c r="B266">
+        <v>0.6193605380037408</v>
+      </c>
+      <c r="C266">
+        <v>0.27416719881931811</v>
+      </c>
+      <c r="D266">
+        <v>0.8391384353867799</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>0.17868828114146657</v>
+      </c>
+      <c r="B267">
+        <v>0.68534396904612094</v>
+      </c>
+      <c r="C267">
+        <v>0.35177275655403267</v>
+      </c>
+      <c r="D267">
+        <v>0.9106941829661459</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>0.092704034593167978</v>
+      </c>
+      <c r="B268">
+        <v>0.82244974520154523</v>
+      </c>
+      <c r="C268">
+        <v>0.41253408836254785</v>
+      </c>
+      <c r="D268">
+        <v>0.95364798270341611</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>0.084744645799011531</v>
+      </c>
+      <c r="B269">
+        <v>0.83124784527941353</v>
+      </c>
+      <c r="C269">
+        <v>0.43169717949283759</v>
+      </c>
+      <c r="D269">
+        <v>0.95762767710049412</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>0.079097733312107371</v>
+      </c>
+      <c r="B270">
+        <v>0.84721733343279015</v>
+      </c>
+      <c r="C270">
+        <v>0.42419299692049262</v>
+      </c>
+      <c r="D270">
+        <v>0.96045113334394627</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>0.068747124131340182</v>
+      </c>
+      <c r="B271">
+        <v>0.82792541889768356</v>
+      </c>
+      <c r="C271">
+        <v>0.54585693552670211</v>
+      </c>
+      <c r="D271">
+        <v>0.96562643793433001</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>0.086480928128137818</v>
+      </c>
+      <c r="B272">
+        <v>0.82823143502001018</v>
+      </c>
+      <c r="C272">
+        <v>0.43543506583562686</v>
+      </c>
+      <c r="D272">
+        <v>0.9567595359359311</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>0.056665204059643211</v>
+      </c>
+      <c r="B273">
+        <v>0.70340383233931902</v>
+      </c>
+      <c r="C273">
+        <v>0.77063070642350595</v>
+      </c>
+      <c r="D273">
+        <v>0.97167778334549293</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>0.059057647152084711</v>
+      </c>
+      <c r="B274">
+        <v>0.6929982222067006</v>
+      </c>
+      <c r="C274">
+        <v>0.77121356828147258</v>
+      </c>
+      <c r="D274">
+        <v>0.97047482111405414</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>0.073991038540653448</v>
+      </c>
+      <c r="B275">
+        <v>0.85204016955247863</v>
+      </c>
+      <c r="C275">
+        <v>0.43214246835924175</v>
+      </c>
+      <c r="D275">
+        <v>0.96300448072967315</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>0.10936730511198595</v>
+      </c>
+      <c r="B276">
+        <v>0.78617773375172118</v>
+      </c>
+      <c r="C276">
+        <v>0.40236278459389546</v>
+      </c>
+      <c r="D276">
+        <v>0.94533993895696011</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>0.047309196009192651</v>
+      </c>
+      <c r="B277">
+        <v>0.64934606899216873</v>
+      </c>
+      <c r="C277">
+        <v>0.82219063120548452</v>
+      </c>
+      <c r="D277">
+        <v>0.97634540199540365</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>0.26130780805279086</v>
+      </c>
+      <c r="B278">
+        <v>0.57686121886721287</v>
+      </c>
+      <c r="C278">
+        <v>0.37382169420282069</v>
+      </c>
+      <c r="D278">
+        <v>0.8720004471758428</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>0.22312559367604201</v>
+      </c>
+      <c r="B279">
+        <v>0.55735800193236285</v>
+      </c>
+      <c r="C279">
+        <v>0.446070570834119</v>
+      </c>
+      <c r="D279">
+        <v>0.88985397581826664</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>0.1673745477426459</v>
+      </c>
+      <c r="B280">
+        <v>0.65910389551030002</v>
+      </c>
+      <c r="C280">
+        <v>0.38848673219888985</v>
+      </c>
+      <c r="D280">
+        <v>0.91631272612867698</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>0.13095983245876175</v>
+      </c>
+      <c r="B281">
+        <v>0.71197749906107555</v>
+      </c>
+      <c r="C281">
+        <v>0.46961279709715953</v>
+      </c>
+      <c r="D281">
+        <v>0.93453263367610262</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>0.11853873196155075</v>
+      </c>
+      <c r="B282">
+        <v>0.75608558206607068</v>
+      </c>
+      <c r="C282">
+        <v>0.45673046802082173</v>
+      </c>
+      <c r="D282">
+        <v>0.94073063401922452</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>0.19492441343457145</v>
+      </c>
+      <c r="B283">
+        <v>0.66938496263771574</v>
+      </c>
+      <c r="C283">
+        <v>0.34426772277517553</v>
+      </c>
+      <c r="D283">
+        <v>0.90262899879152703</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>0.14693294608752333</v>
+      </c>
+      <c r="B284">
+        <v>0.72971631945108106</v>
+      </c>
+      <c r="C284">
+        <v>0.38441948922110952</v>
+      </c>
+      <c r="D284">
+        <v>0.92653991715112316</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>0.1985156806920409</v>
+      </c>
+      <c r="B285">
+        <v>0.66160079166110441</v>
+      </c>
+      <c r="C285">
+        <v>0.33332108993744819</v>
+      </c>
+      <c r="D285">
+        <v>0.90088210726109408</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>0.3441266147631955</v>
+      </c>
+      <c r="B286">
+        <v>0.6193605380037408</v>
+      </c>
+      <c r="C286">
+        <v>0.27416719881931811</v>
+      </c>
+      <c r="D286">
+        <v>0.8391384353867799</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>0.17868828114146657</v>
+      </c>
+      <c r="B287">
+        <v>0.68534396904612094</v>
+      </c>
+      <c r="C287">
+        <v>0.35177275655403267</v>
+      </c>
+      <c r="D287">
+        <v>0.9106941829661459</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>0.092704034593167978</v>
+      </c>
+      <c r="B288">
+        <v>0.82244974520154523</v>
+      </c>
+      <c r="C288">
+        <v>0.41253408836254785</v>
+      </c>
+      <c r="D288">
+        <v>0.95364798270341611</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>0.084744645799011531</v>
+      </c>
+      <c r="B289">
+        <v>0.83124784527941353</v>
+      </c>
+      <c r="C289">
+        <v>0.43169717949283759</v>
+      </c>
+      <c r="D289">
+        <v>0.95762767710049412</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>0.079097733312107371</v>
+      </c>
+      <c r="B290">
+        <v>0.84721733343279015</v>
+      </c>
+      <c r="C290">
+        <v>0.42419299692049262</v>
+      </c>
+      <c r="D290">
+        <v>0.96045113334394627</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>0.068747124131340182</v>
+      </c>
+      <c r="B291">
+        <v>0.82792541889768356</v>
+      </c>
+      <c r="C291">
+        <v>0.54585693552670211</v>
+      </c>
+      <c r="D291">
+        <v>0.96562643793433001</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>0.086480928128137818</v>
+      </c>
+      <c r="B292">
+        <v>0.82823143502001018</v>
+      </c>
+      <c r="C292">
+        <v>0.43543506583562686</v>
+      </c>
+      <c r="D292">
+        <v>0.9567595359359311</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>0.056665204059643211</v>
+      </c>
+      <c r="B293">
+        <v>0.70340383233931902</v>
+      </c>
+      <c r="C293">
+        <v>0.77063070642350595</v>
+      </c>
+      <c r="D293">
+        <v>0.97167778334549293</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>0.059057647152084711</v>
+      </c>
+      <c r="B294">
+        <v>0.6929982222067006</v>
+      </c>
+      <c r="C294">
+        <v>0.77121356828147258</v>
+      </c>
+      <c r="D294">
+        <v>0.97047482111405414</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>0.073991038540653448</v>
+      </c>
+      <c r="B295">
+        <v>0.85204016955247863</v>
+      </c>
+      <c r="C295">
+        <v>0.43214246835924175</v>
+      </c>
+      <c r="D295">
+        <v>0.96300448072967315</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>0.10936730511198595</v>
+      </c>
+      <c r="B296">
+        <v>0.78617773375172118</v>
+      </c>
+      <c r="C296">
+        <v>0.40236278459389546</v>
+      </c>
+      <c r="D296">
+        <v>0.94533993895696011</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>0.047309196009192651</v>
+      </c>
+      <c r="B297">
+        <v>0.64934606899216873</v>
+      </c>
+      <c r="C297">
+        <v>0.82219063120548452</v>
+      </c>
+      <c r="D297">
+        <v>0.97634540199540365</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>0.26130780805279086</v>
+      </c>
+      <c r="B298">
+        <v>0.57686121886721287</v>
+      </c>
+      <c r="C298">
+        <v>0.37382169420282069</v>
+      </c>
+      <c r="D298">
+        <v>0.8720004471758428</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>0.22312559367604201</v>
+      </c>
+      <c r="B299">
+        <v>0.55735800193236285</v>
+      </c>
+      <c r="C299">
+        <v>0.446070570834119</v>
+      </c>
+      <c r="D299">
+        <v>0.88985397581826664</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>0.1673745477426459</v>
+      </c>
+      <c r="B300">
+        <v>0.65910389551030002</v>
+      </c>
+      <c r="C300">
+        <v>0.38848673219888985</v>
+      </c>
+      <c r="D300">
+        <v>0.91631272612867698</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>0.095442666048094024</v>
+      </c>
+      <c r="B301">
+        <v>0.798609208210044</v>
+      </c>
+      <c r="C301">
+        <v>0.47481867528110266</v>
+      </c>
+      <c r="D301">
+        <v>0.95230753369932208</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>0.072197178151162111</v>
+      </c>
+      <c r="B302">
+        <v>0.79051785839007593</v>
+      </c>
+      <c r="C302">
+        <v>0.64473842220779132</v>
+      </c>
+      <c r="D302">
+        <v>0.96404816267587767</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>0.084357617690951014</v>
+      </c>
+      <c r="B303">
+        <v>0.76293696509151443</v>
+      </c>
+      <c r="C303">
+        <v>0.63207166653871283</v>
+      </c>
+      <c r="D303">
+        <v>0.95794522937380089</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>0.031016633395643773</v>
+      </c>
+      <c r="B304">
+        <v>0.78599470444657205</v>
+      </c>
+      <c r="C304">
+        <v>0.8311304921433198</v>
+      </c>
+      <c r="D304">
+        <v>0.98449168330217807</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>0.067347139900603981</v>
+      </c>
+      <c r="B305">
+        <v>0.8602412968545402</v>
+      </c>
+      <c r="C305">
+        <v>0.52875682149664549</v>
+      </c>
+      <c r="D305">
+        <v>0.96633769305494932</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>0.025074376749728962</v>
+      </c>
+      <c r="B306">
+        <v>0.85836240238958927</v>
+      </c>
+      <c r="C306">
+        <v>0.80541153914701225</v>
+      </c>
+      <c r="D306">
+        <v>0.98746281162513549</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>0.028093006127660036</v>
+      </c>
+      <c r="B307">
+        <v>0.87910333274498897</v>
+      </c>
+      <c r="C307">
+        <v>0.75399103188350192</v>
+      </c>
+      <c r="D307">
+        <v>0.98595349693616985</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>0.12557954599342663</v>
+      </c>
+      <c r="B308">
+        <v>0.7606866280585719</v>
+      </c>
+      <c r="C308">
+        <v>0.47564134187097534</v>
+      </c>
+      <c r="D308">
+        <v>0.93757409616359699</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>0.0237661569009298</v>
+      </c>
+      <c r="B309">
+        <v>0.85795685329008442</v>
+      </c>
+      <c r="C309">
+        <v>0.81453267189577905</v>
+      </c>
+      <c r="D309">
+        <v>0.98811692154953512</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>0.020062721294891249</v>
+      </c>
+      <c r="B310">
+        <v>0.86734588494969467</v>
+      </c>
+      <c r="C310">
+        <v>0.83712681027977531</v>
+      </c>
+      <c r="D310">
+        <v>0.98996863935255441</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>0.03795003805784139</v>
+      </c>
+      <c r="B311">
+        <v>0.84889316749497279</v>
+      </c>
+      <c r="C311">
+        <v>0.73920421424944216</v>
+      </c>
+      <c r="D311">
+        <v>0.98102498097107937</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>0.04709775169363125</v>
+      </c>
+      <c r="B312">
+        <v>0.81706372990353071</v>
+      </c>
+      <c r="C312">
+        <v>0.72239998280392625</v>
+      </c>
+      <c r="D312">
+        <v>0.97646041227657698</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>0.021555354612626164</v>
+      </c>
+      <c r="B313">
+        <v>0.80757666751124646</v>
+      </c>
+      <c r="C313">
+        <v>0.87138988702273668</v>
+      </c>
+      <c r="D313">
+        <v>0.98922232269368693</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>0.03394422847141583</v>
+      </c>
+      <c r="B314">
+        <v>0.8429094397208623</v>
+      </c>
+      <c r="C314">
+        <v>0.75650357884496466</v>
+      </c>
+      <c r="D314">
+        <v>0.98302788576429201</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>0.030605674927004563</v>
+      </c>
+      <c r="B315">
+        <v>0.7910922615644117</v>
+      </c>
+      <c r="C315">
+        <v>0.82883390214158426</v>
+      </c>
+      <c r="D315">
+        <v>0.98469716253649764</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>0.027183038536750328</v>
+      </c>
+      <c r="B316">
+        <v>0.81470281584052018</v>
+      </c>
+      <c r="C316">
+        <v>0.83450248815960471</v>
+      </c>
+      <c r="D316">
+        <v>0.98640848073162479</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>0.057105760835596625</v>
+      </c>
+      <c r="B317">
+        <v>0.79806793160946243</v>
+      </c>
+      <c r="C317">
+        <v>0.69596648684036511</v>
+      </c>
+      <c r="D317">
+        <v>0.97145571095195604</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>0.039450101543749019</v>
+      </c>
+      <c r="B318">
+        <v>0.78376371493417518</v>
+      </c>
+      <c r="C318">
+        <v>0.7926893260776593</v>
+      </c>
+      <c r="D318">
+        <v>0.98029009794592847</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>0.031274089771348719</v>
+      </c>
+      <c r="B319">
+        <v>0.79343657840604176</v>
+      </c>
+      <c r="C319">
+        <v>0.82576579983232246</v>
+      </c>
+      <c r="D319">
+        <v>0.9843629551143257</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>0.1578811018862338</v>
+      </c>
+      <c r="B320">
+        <v>0.76970028906461219</v>
+      </c>
+      <c r="C320">
+        <v>0.3435485710952908</v>
+      </c>
+      <c r="D320">
+        <v>0.92188454785079543</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>0.18345942738466101</v>
+      </c>
+      <c r="B321">
+        <v>0.64004026956764026</v>
+      </c>
+      <c r="C321">
+        <v>0.51013514423215423</v>
+      </c>
+      <c r="D321">
+        <v>0.9136589526776443</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>0.20308641975308639</v>
+      </c>
+      <c r="B322">
+        <v>0.68760074334306209</v>
+      </c>
+      <c r="C322">
+        <v>0.38090571415659913</v>
+      </c>
+      <c r="D322">
+        <v>0.90150040288929179</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>0.12033133006256987</v>
+      </c>
+      <c r="B323">
+        <v>0.76954442818242719</v>
+      </c>
+      <c r="C323">
+        <v>0.43492037890260021</v>
+      </c>
+      <c r="D323">
+        <v>0.94014090916493975</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>0.14579412085316668</v>
+      </c>
+      <c r="B324">
+        <v>0.67839846360147471</v>
+      </c>
+      <c r="C324">
+        <v>0.54149905316035363</v>
+      </c>
+      <c r="D324">
+        <v>0.92996984121216542</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>0.14539312754804895</v>
+      </c>
+      <c r="B325">
+        <v>0.71756424576429856</v>
+      </c>
+      <c r="C325">
+        <v>0.51495199310468576</v>
+      </c>
+      <c r="D325">
+        <v>0.92908949718501255</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>0.1266029368439007</v>
+      </c>
+      <c r="B326">
+        <v>0.77732981016712621</v>
+      </c>
+      <c r="C326">
+        <v>0.39913915509375464</v>
+      </c>
+      <c r="D326">
+        <v>0.93682257989486895</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>0.17760825698080279</v>
+      </c>
+      <c r="B327">
+        <v>0.74874895663399887</v>
+      </c>
+      <c r="C327">
+        <v>0.33392197738630774</v>
+      </c>
+      <c r="D327">
+        <v>0.91214772169502611</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>0.18013483764446889</v>
+      </c>
+      <c r="B328">
+        <v>0.71460378992174711</v>
+      </c>
+      <c r="C328">
+        <v>0.37419658339010059</v>
+      </c>
+      <c r="D328">
+        <v>0.91178407631627223</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>0.11203287977413535</v>
+      </c>
+      <c r="B329">
+        <v>0.77603612293532687</v>
+      </c>
+      <c r="C329">
+        <v>0.50883900978424979</v>
+      </c>
+      <c r="D329">
+        <v>0.94458420744778171</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>0.078843481761398326</v>
+      </c>
+      <c r="B330">
+        <v>0.78200796532649408</v>
+      </c>
+      <c r="C330">
+        <v>0.61009178397071706</v>
+      </c>
+      <c r="D330">
+        <v>0.96058691634093873</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>0.13321900877518231</v>
+      </c>
+      <c r="B331">
+        <v>0.72844109656302924</v>
+      </c>
+      <c r="C331">
+        <v>0.50528410950832103</v>
+      </c>
+      <c r="D331">
+        <v>0.93385397355085908</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>0.16830730515875952</v>
+      </c>
+      <c r="B332">
+        <v>0.68704729644487994</v>
+      </c>
+      <c r="C332">
+        <v>0.4741328546717356</v>
+      </c>
+      <c r="D332">
+        <v>0.91799362776714566</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>0.1395164486722156</v>
+      </c>
+      <c r="B333">
+        <v>0.70215671548582781</v>
+      </c>
+      <c r="C333">
+        <v>0.5403926417654179</v>
+      </c>
+      <c r="D333">
+        <v>0.93165442035834423</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>0.20261402298015571</v>
+      </c>
+      <c r="B334">
+        <v>0.660281245871018</v>
+      </c>
+      <c r="C334">
+        <v>0.47215890466930882</v>
+      </c>
+      <c r="D334">
+        <v>0.90508325967898828</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>0.070932083746357871</v>
+      </c>
+      <c r="B335">
+        <v>0.78746260165554227</v>
+      </c>
+      <c r="C335">
+        <v>0.6473406717745378</v>
+      </c>
+      <c r="D335">
+        <v>0.96454196829974082</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>0.200597255269546</v>
+      </c>
+      <c r="B336">
+        <v>0.7024200939298112</v>
+      </c>
+      <c r="C336">
+        <v>0.3662037780260104</v>
+      </c>
+      <c r="D336">
+        <v>0.90185645844849838</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>0.14125094482237341</v>
+      </c>
+      <c r="B337">
+        <v>0.7574579270929187</v>
+      </c>
+      <c r="C337">
+        <v>0.40806859167619347</v>
+      </c>
+      <c r="D337">
+        <v>0.92961808180062144</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>0.28681353146021243</v>
+      </c>
+      <c r="B338">
+        <v>0.64031839191854401</v>
+      </c>
+      <c r="C338">
+        <v>0.33965419789797235</v>
+      </c>
+      <c r="D338">
+        <v>0.8684922025393117</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>0.36165432567559014</v>
+      </c>
+      <c r="B339">
+        <v>0.59661691574487552</v>
+      </c>
+      <c r="C339">
+        <v>0.30786391502954924</v>
+      </c>
+      <c r="D339">
+        <v>0.84303999746851455</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>0.15271671621376431</v>
+      </c>
+      <c r="B340">
+        <v>0.7276715014260573</v>
+      </c>
+      <c r="C340">
+        <v>0.48554686631004995</v>
+      </c>
+      <c r="D340">
+        <v>0.92545604265237491</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>0.30685679463741622</v>
+      </c>
+      <c r="B341">
+        <v>0.54005578743940141</v>
+      </c>
+      <c r="C341">
+        <v>0.28430333560524956</v>
+      </c>
+      <c r="D341">
+        <v>0.85009343895998379</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>0.29536137860092782</v>
+      </c>
+      <c r="B342">
+        <v>0.55449333860151273</v>
+      </c>
+      <c r="C342">
+        <v>0.29185758881557861</v>
+      </c>
+      <c r="D342">
+        <v>0.85543455566702153</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>0.26371391244204218</v>
+      </c>
+      <c r="B343">
+        <v>0.5613361956395434</v>
+      </c>
+      <c r="C343">
+        <v>0.33811412205490893</v>
+      </c>
+      <c r="D343">
+        <v>0.87007497160813241</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>0.26071603780196556</v>
+      </c>
+      <c r="B344">
+        <v>0.58337405120438846</v>
+      </c>
+      <c r="C344">
+        <v>0.30341732771289431</v>
+      </c>
+      <c r="D344">
+        <v>0.87106521539896375</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>0.20888908803951151</v>
+      </c>
+      <c r="B345">
+        <v>0.6433766570593179</v>
+      </c>
+      <c r="C345">
+        <v>0.32984149195764828</v>
+      </c>
+      <c r="D345">
+        <v>0.89598694899586606</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>0.070173504346796367</v>
+      </c>
+      <c r="B346">
+        <v>0.7000985160895119</v>
+      </c>
+      <c r="C346">
+        <v>0.72037900279045575</v>
+      </c>
+      <c r="D346">
+        <v>0.96491324782660182</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>0.086483357193184021</v>
+      </c>
+      <c r="B347">
+        <v>0.64154049544641245</v>
+      </c>
+      <c r="C347">
+        <v>0.69615591940425203</v>
+      </c>
+      <c r="D347">
+        <v>0.95680020703469182</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>0.090182190084565614</v>
+      </c>
+      <c r="B348">
+        <v>0.65782377548838333</v>
+      </c>
+      <c r="C348">
+        <v>0.67266732858522094</v>
+      </c>
+      <c r="D348">
+        <v>0.9549145398478297</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>0.074218489518441455</v>
+      </c>
+      <c r="B349">
+        <v>0.71247413630675627</v>
+      </c>
+      <c r="C349">
+        <v>0.68350394381117452</v>
+      </c>
+      <c r="D349">
+        <v>0.96289075524077927</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>0.20800981272485047</v>
+      </c>
+      <c r="B350">
+        <v>0.73069684468010943</v>
+      </c>
+      <c r="C350">
+        <v>0.30303229260006304</v>
+      </c>
+      <c r="D350">
+        <v>0.89678804110024057</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>0.10130294316043598</v>
+      </c>
+      <c r="B351">
+        <v>0.79903558486410409</v>
+      </c>
+      <c r="C351">
+        <v>0.44822179907254434</v>
+      </c>
+      <c r="D351">
+        <v>0.94936746310694542</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>0.077244548421115999</v>
+      </c>
+      <c r="B352">
+        <v>0.84561446730843659</v>
+      </c>
+      <c r="C352">
+        <v>0.45164771198230808</v>
+      </c>
+      <c r="D352">
+        <v>0.96137772578944192</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>0.2143677545924737</v>
+      </c>
+      <c r="B353">
+        <v>0.62330493022252997</v>
+      </c>
+      <c r="C353">
+        <v>0.40484241764245071</v>
+      </c>
+      <c r="D353">
+        <v>0.8951732952856547</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>0.13264854639533066</v>
+      </c>
+      <c r="B354">
+        <v>0.72170133554582572</v>
+      </c>
+      <c r="C354">
+        <v>0.46104533817071175</v>
+      </c>
+      <c r="D354">
+        <v>0.93374637802111227</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>0.11671428532519139</v>
+      </c>
+      <c r="B355">
+        <v>0.74440758516577898</v>
+      </c>
+      <c r="C355">
+        <v>0.47690998044673388</v>
+      </c>
+      <c r="D355">
+        <v>0.94164285733740438</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>0.11280826792701606</v>
+      </c>
+      <c r="B356">
+        <v>0.73536669065263716</v>
+      </c>
+      <c r="C356">
+        <v>0.49706277741842003</v>
+      </c>
+      <c r="D356">
+        <v>0.94362647827023383</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>0.10426827845324496</v>
+      </c>
+      <c r="B357">
+        <v>0.73945997798625673</v>
+      </c>
+      <c r="C357">
+        <v>0.52169405034318406</v>
+      </c>
+      <c r="D357">
+        <v>0.94788364109966872</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>0.11161358486802532</v>
+      </c>
+      <c r="B358">
+        <v>0.72460989376776641</v>
+      </c>
+      <c r="C358">
+        <v>0.51761062044235551</v>
+      </c>
+      <c r="D358">
+        <v>0.94424307401739704</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>0.14506201971742055</v>
+      </c>
+      <c r="B359">
+        <v>0.70528609630933392</v>
+      </c>
+      <c r="C359">
+        <v>0.43408286912918287</v>
+      </c>
+      <c r="D359">
+        <v>0.92765125748191157</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>0.11479537325219491</v>
+      </c>
+      <c r="B360">
+        <v>0.75477935257971285</v>
+      </c>
+      <c r="C360">
+        <v>0.47032341182331666</v>
+      </c>
+      <c r="D360">
+        <v>0.94261057173678542</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>0.064369063993567593</v>
+      </c>
+      <c r="B361">
+        <v>0.748298102700791</v>
+      </c>
+      <c r="C361">
+        <v>0.69538667687511313</v>
+      </c>
+      <c r="D361">
+        <v>0.96781546800321627</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>0.16922524463596372</v>
+      </c>
+      <c r="B362">
+        <v>0.72199899113006594</v>
+      </c>
+      <c r="C362">
+        <v>0.34755937427830902</v>
+      </c>
+      <c r="D362">
+        <v>0.91542727753339115</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>0.20957265553675369</v>
+      </c>
+      <c r="B363">
+        <v>0.71742424956404849</v>
+      </c>
+      <c r="C363">
+        <v>0.30405640671724671</v>
+      </c>
+      <c r="D363">
+        <v>0.89571763903184098</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>0.12645136414236585</v>
+      </c>
+      <c r="B364">
+        <v>0.77388409114200618</v>
+      </c>
+      <c r="C364">
+        <v>0.38848649427277854</v>
+      </c>
+      <c r="D364">
+        <v>0.93686553024413799</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>0.14209156626506025</v>
+      </c>
+      <c r="B365">
+        <v>0.74046340801388055</v>
+      </c>
+      <c r="C365">
+        <v>0.37655588751923352</v>
+      </c>
+      <c r="D365">
+        <v>0.92895421686746982</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>0.10481584732626467</v>
+      </c>
+      <c r="B366">
+        <v>0.72019165364673843</v>
+      </c>
+      <c r="C366">
+        <v>0.54469150018982382</v>
+      </c>
+      <c r="D366">
+        <v>0.94760779321305988</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>0.104561782751057</v>
+      </c>
+      <c r="B367">
+        <v>0.80201567806276641</v>
+      </c>
+      <c r="C367">
+        <v>0.40530343453575901</v>
+      </c>
+      <c r="D367">
+        <v>0.9477191086244714</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>0.11907889462421294</v>
+      </c>
+      <c r="B368">
+        <v>0.79606055762161032</v>
+      </c>
+      <c r="C368">
+        <v>0.39371976262540814</v>
+      </c>
+      <c r="D368">
+        <v>0.94046055268789353</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>0.10666554188409115</v>
+      </c>
+      <c r="B369">
+        <v>0.77576829909236944</v>
+      </c>
+      <c r="C369">
+        <v>0.4736347055433876</v>
+      </c>
+      <c r="D369">
+        <v>0.94666722905795442</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>0.12900532567582954</v>
+      </c>
+      <c r="B370">
+        <v>0.75589844767381109</v>
+      </c>
+      <c r="C370">
+        <v>0.42105680241870613</v>
+      </c>
+      <c r="D370">
+        <v>0.93550295941157546</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>0.11078644727144271</v>
+      </c>
+      <c r="B371">
+        <v>0.7807947249085978</v>
+      </c>
+      <c r="C371">
+        <v>0.42626820406897842</v>
+      </c>
+      <c r="D371">
+        <v>0.94460677636427859</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>0.11794330377478171</v>
+      </c>
+      <c r="B372">
+        <v>0.73401391294763663</v>
+      </c>
+      <c r="C372">
+        <v>0.48181939862935802</v>
+      </c>
+      <c r="D372">
+        <v>0.94106240501317573</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>0.12758905906848064</v>
+      </c>
+      <c r="B373">
+        <v>0.70509972304135382</v>
+      </c>
+      <c r="C373">
+        <v>0.5254626482330863</v>
+      </c>
+      <c r="D373">
+        <v>0.93627392259205389</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>0.14664025249452736</v>
+      </c>
+      <c r="B374">
+        <v>0.78629600662994259</v>
+      </c>
+      <c r="C374">
+        <v>0.36373904382235966</v>
+      </c>
+      <c r="D374">
+        <v>0.9267353365813753</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>0.11223870549897753</v>
+      </c>
+      <c r="B375">
+        <v>0.71152349727080799</v>
+      </c>
+      <c r="C375">
+        <v>0.58147053957492445</v>
+      </c>
+      <c r="D375">
+        <v>0.94394864289199065</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>0.18161991023733359</v>
+      </c>
+      <c r="B376">
+        <v>0.71238581081624075</v>
+      </c>
+      <c r="C376">
+        <v>0.36533578340646644</v>
+      </c>
+      <c r="D376">
+        <v>0.90944120983161003</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>0.23433802179777388</v>
+      </c>
+      <c r="B377">
+        <v>0.68713233037110455</v>
+      </c>
+      <c r="C377">
+        <v>0.28769751679647659</v>
+      </c>
+      <c r="D377">
+        <v>0.88470815243608303</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>0.16375889520468678</v>
+      </c>
+      <c r="B378">
+        <v>0.73514024328767114</v>
+      </c>
+      <c r="C378">
+        <v>0.35940671614298592</v>
+      </c>
+      <c r="D378">
+        <v>0.91825187721886858</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>0.18284012600723373</v>
+      </c>
+      <c r="B379">
+        <v>0.71268333631396141</v>
+      </c>
+      <c r="C379">
+        <v>0.3441141957873155</v>
+      </c>
+      <c r="D379">
+        <v>0.90895032862997693</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>0.070949824106646908</v>
+      </c>
+      <c r="B380">
+        <v>0.85060574582422654</v>
+      </c>
+      <c r="C380">
+        <v>0.4818185726283935</v>
+      </c>
+      <c r="D380">
+        <v>0.96452508794667646</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>0.064369063993567593</v>
+      </c>
+      <c r="B381">
+        <v>0.748298102700791</v>
+      </c>
+      <c r="C381">
+        <v>0.69538667687511313</v>
+      </c>
+      <c r="D381">
+        <v>0.96781546800321627</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>0.16922524463596372</v>
+      </c>
+      <c r="B382">
+        <v>0.72199899113006594</v>
+      </c>
+      <c r="C382">
+        <v>0.34755937427830902</v>
+      </c>
+      <c r="D382">
+        <v>0.91542727753339115</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>0.20957265553675369</v>
+      </c>
+      <c r="B383">
+        <v>0.71742424956404849</v>
+      </c>
+      <c r="C383">
+        <v>0.30405640671724671</v>
+      </c>
+      <c r="D383">
+        <v>0.89571763903184098</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>0.12645136414236585</v>
+      </c>
+      <c r="B384">
+        <v>0.77388409114200618</v>
+      </c>
+      <c r="C384">
+        <v>0.38848649427277854</v>
+      </c>
+      <c r="D384">
+        <v>0.93686553024413799</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>0.14209156626506025</v>
+      </c>
+      <c r="B385">
+        <v>0.74046340801388055</v>
+      </c>
+      <c r="C385">
+        <v>0.37655588751923352</v>
+      </c>
+      <c r="D385">
+        <v>0.92895421686746982</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>0.10481584732626467</v>
+      </c>
+      <c r="B386">
+        <v>0.72019165364673843</v>
+      </c>
+      <c r="C386">
+        <v>0.54469150018982382</v>
+      </c>
+      <c r="D386">
+        <v>0.94760779321305988</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>0.104561782751057</v>
+      </c>
+      <c r="B387">
+        <v>0.80201567806276641</v>
+      </c>
+      <c r="C387">
+        <v>0.40530343453575901</v>
+      </c>
+      <c r="D387">
+        <v>0.9477191086244714</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>0.11907889462421294</v>
+      </c>
+      <c r="B388">
+        <v>0.79606055762161032</v>
+      </c>
+      <c r="C388">
+        <v>0.39371976262540814</v>
+      </c>
+      <c r="D388">
+        <v>0.94046055268789353</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>0.10666554188409115</v>
+      </c>
+      <c r="B389">
+        <v>0.77576829909236944</v>
+      </c>
+      <c r="C389">
+        <v>0.4736347055433876</v>
+      </c>
+      <c r="D389">
+        <v>0.94666722905795442</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>0.12900532567582954</v>
+      </c>
+      <c r="B390">
+        <v>0.75589844767381109</v>
+      </c>
+      <c r="C390">
+        <v>0.42105680241870613</v>
+      </c>
+      <c r="D390">
+        <v>0.93550295941157546</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>0.11078644727144271</v>
+      </c>
+      <c r="B391">
+        <v>0.7807947249085978</v>
+      </c>
+      <c r="C391">
+        <v>0.42626820406897842</v>
+      </c>
+      <c r="D391">
+        <v>0.94460677636427859</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>0.11794330377478171</v>
+      </c>
+      <c r="B392">
+        <v>0.73401391294763663</v>
+      </c>
+      <c r="C392">
+        <v>0.48181939862935802</v>
+      </c>
+      <c r="D392">
+        <v>0.94106240501317573</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>0.12758905906848064</v>
+      </c>
+      <c r="B393">
+        <v>0.70509972304135382</v>
+      </c>
+      <c r="C393">
+        <v>0.5254626482330863</v>
+      </c>
+      <c r="D393">
+        <v>0.93627392259205389</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>0.14664025249452736</v>
+      </c>
+      <c r="B394">
+        <v>0.78629600662994259</v>
+      </c>
+      <c r="C394">
+        <v>0.36373904382235966</v>
+      </c>
+      <c r="D394">
+        <v>0.9267353365813753</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>0.11223870549897753</v>
+      </c>
+      <c r="B395">
+        <v>0.71152349727080799</v>
+      </c>
+      <c r="C395">
+        <v>0.58147053957492445</v>
+      </c>
+      <c r="D395">
+        <v>0.94394864289199065</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>0.18161991023733359</v>
+      </c>
+      <c r="B396">
+        <v>0.71238581081624075</v>
+      </c>
+      <c r="C396">
+        <v>0.36533578340646644</v>
+      </c>
+      <c r="D396">
+        <v>0.90944120983161003</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>0.23433802179777388</v>
+      </c>
+      <c r="B397">
+        <v>0.68713233037110455</v>
+      </c>
+      <c r="C397">
+        <v>0.28769751679647659</v>
+      </c>
+      <c r="D397">
+        <v>0.88470815243608303</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>0.16375889520468678</v>
+      </c>
+      <c r="B398">
+        <v>0.73514024328767114</v>
+      </c>
+      <c r="C398">
+        <v>0.35940671614298592</v>
+      </c>
+      <c r="D398">
+        <v>0.91825187721886858</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>0.18284012600723373</v>
+      </c>
+      <c r="B399">
+        <v>0.71268333631396141</v>
+      </c>
+      <c r="C399">
+        <v>0.3441141957873155</v>
+      </c>
+      <c r="D399">
+        <v>0.90895032862997693</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>0.070949824106646908</v>
+      </c>
+      <c r="B400">
+        <v>0.85060574582422654</v>
+      </c>
+      <c r="C400">
+        <v>0.4818185726283935</v>
+      </c>
+      <c r="D400">
+        <v>0.96452508794667646</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>